--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2418538.966992079</v>
+        <v>2414156.006246174</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9975138.252205901</v>
+        <v>9964927.035287924</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>429604.725943107</v>
+        <v>430763.7823717232</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9591273.301777333</v>
+        <v>9591418.341927968</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,10 +667,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>30.83880050196732</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>14.92708396620971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>19.79590955981773</v>
+        <v>24.91932345750163</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>265.0300400044457</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>300.2994412657489</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>25.31590541686258</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>128.801431250095</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>153.5613156481825</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>21.05984910492395</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>100.5088970641055</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.275596830496854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710073</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
         <v>250.9088959876463</v>
@@ -1466,7 +1466,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.86523301889687</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>23.94516103140406</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127578</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045444</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.6125906008198</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.0240632056146</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.4255876952163</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T15" t="n">
         <v>188.3907690366107</v>
@@ -1773,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108372</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>133.3125405967878</v>
       </c>
       <c r="U16" t="n">
-        <v>21.84464054481624</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045444</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.6125906008198</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T17" t="n">
         <v>199.1970568374742</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,7 +1940,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.0240632056146</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952163</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
         <v>188.3907690366107</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440913</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108372</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.338488358459</v>
@@ -2058,7 +2058,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>239.2759478044683</v>
+        <v>265.5228360892621</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045444</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.6125906008198</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2177,7 +2177,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.0240632056146</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952163</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
         <v>188.3907690366107</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>20.87331873678574</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>81.3725990111929</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440913</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
         <v>181.338488358459</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H23" t="n">
-        <v>283.5630920045444</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.6125906008198</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T23" t="n">
         <v>199.1970568374742</v>
@@ -2414,7 +2414,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.0240632056146</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.4255876952163</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T24" t="n">
         <v>188.3907690366107</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>83.07736723265373</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440913</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108372</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S25" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
         <v>286.1854515484204</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>218.3898308490713</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8432760127574</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H26" t="n">
-        <v>283.5630920045444</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.6125906008198</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T26" t="n">
         <v>199.1970568374742</v>
@@ -2651,7 +2651,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.0240632056146</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.4255876952163</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T27" t="n">
         <v>188.3907690366107</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>32.9660398021439</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108372</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S28" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>96.31048683766507</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H29" t="n">
-        <v>283.5630920045444</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.6125906008198</v>
+        <v>84.61259060081882</v>
       </c>
       <c r="T29" t="n">
         <v>199.1970568374742</v>
@@ -2888,7 +2888,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.0240632056146</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.4255876952163</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T30" t="n">
         <v>188.3907690366107</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>64.44601915223838</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440913</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108372</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S31" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U31" t="n">
         <v>286.1854515484204</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>17.61559692495344</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H32" t="n">
-        <v>283.5630920045444</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060081983</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T32" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U32" t="n">
         <v>250.9088959876463</v>
@@ -3125,7 +3125,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.0240632056146</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.4255876952163</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T33" t="n">
         <v>188.3907690366107</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440915</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108373</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>15.67487148160818</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T34" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>40.95820988255431</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3319,10 +3319,10 @@
         <v>84.61259060081963</v>
       </c>
       <c r="T35" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374745</v>
       </c>
       <c r="U35" t="n">
-        <v>250.908895987647</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>142.8837914811967</v>
+        <v>74.91025708412607</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127574</v>
       </c>
       <c r="H38" t="n">
         <v>283.5630920045443</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>76.61502530558695</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.338488358459</v>
       </c>
       <c r="T40" t="n">
-        <v>74.18033439553818</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
         <v>286.1854515484204</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>58.77646003115839</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3915,10 +3915,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>153.9036548888877</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4070,10 +4070,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>23.94516103140406</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
-        <v>218.0379183711103</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1794.737189801198</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C2" t="n">
-        <v>1425.774672860787</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="D2" t="n">
-        <v>1067.508974254036</v>
+        <v>879.7184058617563</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>493.9301532635121</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>486.9846525143086</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>69.02084441249548</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>69.02084441249548</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2168.202948062278</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1794.737189801198</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1794.737189801198</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4415,19 +4415,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>418.7159459272334</v>
+        <v>702.9579504109782</v>
       </c>
       <c r="C4" t="n">
-        <v>418.7159459272334</v>
+        <v>702.9579504109782</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5993065148977</v>
+        <v>552.8413109986425</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>708.1331159641941</v>
+        <v>702.9579504109782</v>
       </c>
       <c r="W4" t="n">
-        <v>418.7159459272334</v>
+        <v>702.9579504109782</v>
       </c>
       <c r="X4" t="n">
-        <v>418.7159459272334</v>
+        <v>702.9579504109782</v>
       </c>
       <c r="Y4" t="n">
-        <v>418.7159459272334</v>
+        <v>702.9579504109782</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1703.566937845283</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>371.1991548370755</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>357.2757507756664</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304456</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304456</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1971.274048960885</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1971.274048960885</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1971.274048960885</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>984.6750962183021</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>615.7125792778904</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>615.7125792778904</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>229.9243266796462</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>222.9788259304427</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>209.0554218690336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2675.876516164764</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2499.699028478934</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2499.699028478934</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2245.937243117025</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>1914.874355773455</v>
       </c>
       <c r="W8" t="n">
-        <v>2134.880026519315</v>
+        <v>1562.105700503341</v>
       </c>
       <c r="X8" t="n">
-        <v>1761.414268258236</v>
+        <v>1188.639942242261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1371.274936282424</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4892,7 +4892,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4904,28 +4904,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>291.7960311703076</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>291.7960311703076</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>291.7960311703076</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>336.276983312403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810047</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>108.9687959810047</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>108.9687959810047</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>108.9687959810047</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X10" t="n">
-        <v>108.9687959810047</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D11" t="n">
         <v>1591.032978284208</v>
@@ -5029,43 +5029,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I11" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J11" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K11" t="n">
-        <v>842.9746074384032</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.783927800325</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O11" t="n">
-        <v>3603.645964259464</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P11" t="n">
-        <v>4151.951912946813</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q11" t="n">
-        <v>4515.53409905282</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R11" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S11" t="n">
         <v>4606.950144347201</v>
@@ -5074,19 +5074,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H12" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I12" t="n">
-        <v>94.88738072612972</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J12" t="n">
-        <v>94.88738072612972</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K12" t="n">
-        <v>425.396123289489</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L12" t="n">
-        <v>526.9340838249478</v>
+        <v>241.496329903453</v>
       </c>
       <c r="M12" t="n">
-        <v>1118.952438077076</v>
+        <v>833.5146841555808</v>
       </c>
       <c r="N12" t="n">
-        <v>1741.048401476413</v>
+        <v>1455.610647554917</v>
       </c>
       <c r="O12" t="n">
-        <v>2287.924876476608</v>
+        <v>2002.487122555111</v>
       </c>
       <c r="P12" t="n">
-        <v>2287.924876476608</v>
+        <v>2422.070640981187</v>
       </c>
       <c r="Q12" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R12" t="n">
         <v>2553.812354695766</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>638.4964696577447</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C13" t="n">
-        <v>638.4964696577447</v>
+        <v>538.7680286442462</v>
       </c>
       <c r="D13" t="n">
-        <v>638.4964696577447</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E13" t="n">
-        <v>490.5833760753516</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F13" t="n">
-        <v>343.6934285774412</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G13" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H13" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I13" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J13" t="n">
-        <v>172.8304710411611</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L13" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M13" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N13" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O13" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P13" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q13" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2361.553154294199</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S13" t="n">
-        <v>2178.382964033129</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T13" t="n">
-        <v>1958.704181747511</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U13" t="n">
-        <v>1669.627968062238</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V13" t="n">
-        <v>1414.943479856351</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W13" t="n">
-        <v>1125.52630981939</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X13" t="n">
-        <v>897.5367589213727</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y13" t="n">
-        <v>676.7441797778425</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D14" t="n">
         <v>1591.032978284208</v>
@@ -5269,43 +5269,43 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G14" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507193</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9746074384002</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944174</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.49894988321</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.783927800315</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.645964259452</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P14" t="n">
-        <v>4151.951912946799</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T14" t="n">
         <v>4405.740996026519</v>
@@ -5323,7 +5323,7 @@
         <v>3095.000365871303</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J15" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K15" t="n">
-        <v>238.7141959544642</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L15" t="n">
-        <v>729.4465287982147</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M15" t="n">
-        <v>1321.464883050341</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N15" t="n">
-        <v>1321.464883050341</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="O15" t="n">
-        <v>1868.341358050535</v>
+        <v>2201.632234562885</v>
       </c>
       <c r="P15" t="n">
-        <v>2287.92487647661</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q15" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R15" t="n">
         <v>2553.812354695766</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.791123359144</v>
+        <v>580.1153653172709</v>
       </c>
       <c r="C16" t="n">
-        <v>847.8549404312371</v>
+        <v>411.179182389364</v>
       </c>
       <c r="D16" t="n">
-        <v>697.7383010189013</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E16" t="n">
-        <v>549.8252074365082</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F16" t="n">
-        <v>402.9352599385978</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G16" t="n">
-        <v>235.7210651131767</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J16" t="n">
-        <v>172.8304710411607</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117239</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L16" t="n">
-        <v>820.2210160948575</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M16" t="n">
-        <v>1239.450608139316</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N16" t="n">
-        <v>1654.146473931023</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O16" t="n">
-        <v>2021.168930946052</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P16" t="n">
-        <v>2311.699365782256</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q16" t="n">
-        <v>2429.41249933569</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R16" t="n">
-        <v>2361.553154294192</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S16" t="n">
-        <v>2178.382964033122</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T16" t="n">
-        <v>1958.704181747504</v>
+        <v>2043.723832117179</v>
       </c>
       <c r="U16" t="n">
-        <v>1936.638888267892</v>
+        <v>1754.647618431906</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.638888267892</v>
+        <v>1499.963130226019</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.221718230931</v>
+        <v>1210.545960189058</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.232167332914</v>
+        <v>982.5564092910407</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.439588189384</v>
+        <v>761.7638301475106</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2318.261193831371</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.03297828421</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E17" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.258820896358</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127634</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160737</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3442236507194</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K17" t="n">
-        <v>842.9746074384003</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.494387944174</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.49894988321</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.583449151125</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610262</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297609</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403615</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.861033895493</v>
@@ -5570,61 +5570,61 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C18" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D18" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E18" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F18" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G18" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J18" t="n">
-        <v>241.4963299034526</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K18" t="n">
-        <v>241.4963299034526</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L18" t="n">
-        <v>732.2286627472031</v>
+        <v>373.2380436180322</v>
       </c>
       <c r="M18" t="n">
-        <v>1324.24701699933</v>
+        <v>965.25639787016</v>
       </c>
       <c r="N18" t="n">
-        <v>1587.352361269498</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O18" t="n">
-        <v>2134.228836269692</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S18" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U18" t="n">
         <v>2016.877442379908</v>
@@ -5636,7 +5636,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y18" t="n">
         <v>1111.876178449477</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.2716312062292</v>
+        <v>804.6189678792535</v>
       </c>
       <c r="C19" t="n">
-        <v>763.2716312062292</v>
+        <v>635.6827849513467</v>
       </c>
       <c r="D19" t="n">
-        <v>613.1549917938935</v>
+        <v>485.566145539011</v>
       </c>
       <c r="E19" t="n">
-        <v>465.2418982115004</v>
+        <v>485.566145539011</v>
       </c>
       <c r="F19" t="n">
-        <v>318.35195071359</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G19" t="n">
-        <v>318.35195071359</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H19" t="n">
-        <v>176.4792337520203</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411607</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117239</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948575</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139316</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.146473931023</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946052</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.699365782256</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.41249933569</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294192</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S19" t="n">
-        <v>2178.382964033122</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T19" t="n">
-        <v>1958.704181747504</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U19" t="n">
-        <v>1717.011305177334</v>
+        <v>1758.358641850358</v>
       </c>
       <c r="V19" t="n">
-        <v>1462.326816971447</v>
+        <v>1503.674153644471</v>
       </c>
       <c r="W19" t="n">
-        <v>1172.909646934486</v>
+        <v>1214.256983607511</v>
       </c>
       <c r="X19" t="n">
-        <v>944.920096036469</v>
+        <v>986.2674327094933</v>
       </c>
       <c r="Y19" t="n">
-        <v>944.920096036469</v>
+        <v>986.2674327094933</v>
       </c>
     </row>
     <row r="20">
@@ -5740,40 +5740,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127636</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160733</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I20" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507193</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074384002</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944174</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.49894988321</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.783927800315</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.645964259452</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.751434297608</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403614</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580352</v>
@@ -5822,34 +5822,34 @@
         <v>314.5013895084599</v>
       </c>
       <c r="G21" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="I21" t="n">
-        <v>94.88738072612948</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J21" t="n">
-        <v>242.5353624779751</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K21" t="n">
-        <v>573.0441050413332</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L21" t="n">
-        <v>764.7727330321248</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M21" t="n">
-        <v>1356.791087284251</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N21" t="n">
-        <v>1356.791087284251</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O21" t="n">
-        <v>1903.667562284445</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P21" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.812354695766</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>972.5930757173518</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C22" t="n">
-        <v>803.6568927894449</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D22" t="n">
-        <v>653.5402533771091</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="E22" t="n">
-        <v>632.4560930369215</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="F22" t="n">
-        <v>485.5661455390111</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="G22" t="n">
-        <v>318.35195071359</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H22" t="n">
-        <v>176.4792337520203</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I22" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411607</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117239</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948575</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139316</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.146473931023</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946052</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.699365782256</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.41249933569</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2429.41249933569</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S22" t="n">
-        <v>2246.242309074621</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T22" t="n">
-        <v>2026.563526789003</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U22" t="n">
-        <v>1737.48731310373</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V22" t="n">
-        <v>1482.802824897843</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W22" t="n">
-        <v>1193.385654860882</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X22" t="n">
-        <v>1193.385654860882</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y22" t="n">
-        <v>972.5930757173518</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C23" t="n">
         <v>1949.298676890959</v>
@@ -5977,40 +5977,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127628</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160679</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160679</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507191</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074384</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944173</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.49894988321</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.783927800314</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.645964259451</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P23" t="n">
-        <v>4151.951912946798</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403614</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580352</v>
@@ -6025,7 +6025,7 @@
         <v>4152.297666746069</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W23" t="n">
         <v>3468.466124132384</v>
@@ -6034,7 +6034,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>314.5013895084599</v>
       </c>
       <c r="G24" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
         <v>93.84834815160704</v>
@@ -6068,28 +6068,28 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160704</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K24" t="n">
-        <v>424.3570907149651</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L24" t="n">
-        <v>915.0894235587156</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>1507.107777810842</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N24" t="n">
-        <v>1741.048401476417</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O24" t="n">
-        <v>2287.92487647661</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P24" t="n">
-        <v>2287.92487647661</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q24" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R24" t="n">
         <v>2553.812354695766</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3046.600786778401</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C25" t="n">
-        <v>3046.600786778401</v>
+        <v>411.179182389364</v>
       </c>
       <c r="D25" t="n">
-        <v>2896.484147366066</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E25" t="n">
-        <v>2748.571053783673</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F25" t="n">
-        <v>2748.571053783673</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G25" t="n">
-        <v>2581.356858958251</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H25" t="n">
-        <v>2439.484141996682</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I25" t="n">
-        <v>2356.853256396269</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J25" t="n">
-        <v>2435.835379285822</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K25" t="n">
-        <v>2695.464106256385</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L25" t="n">
-        <v>3083.225924339519</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M25" t="n">
-        <v>3502.455516383978</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N25" t="n">
-        <v>3917.151382175684</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O25" t="n">
-        <v>4284.173839190713</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P25" t="n">
-        <v>4574.704274026917</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q25" t="n">
-        <v>4692.417407580352</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>4624.558062538854</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S25" t="n">
-        <v>4441.387872277784</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T25" t="n">
-        <v>4441.387872277784</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U25" t="n">
-        <v>4152.311658592511</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V25" t="n">
-        <v>3897.627170386624</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W25" t="n">
-        <v>3677.031381650188</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X25" t="n">
-        <v>3449.041830752171</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y25" t="n">
-        <v>3228.249251608641</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D26" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.03297828421</v>
       </c>
       <c r="E26" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963575</v>
       </c>
       <c r="G26" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127638</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160777</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507193</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074384002</v>
+        <v>842.9746074383984</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944174</v>
+        <v>1462.494387944171</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.49894988321</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.783927800315</v>
+        <v>2971.58344915113</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610262</v>
+        <v>3654.445485610265</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297608</v>
+        <v>4202.751434297611</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U26" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="27">
@@ -6281,61 +6281,61 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.6608414294086</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C27" t="n">
-        <v>769.2078121482816</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D27" t="n">
-        <v>620.2734024870304</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E27" t="n">
-        <v>461.0359474815749</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F27" t="n">
-        <v>314.5013895084599</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G27" t="n">
         <v>178.7211392683895</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J27" t="n">
-        <v>93.84834815160704</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K27" t="n">
-        <v>424.3570907149651</v>
+        <v>504.6016741736257</v>
       </c>
       <c r="L27" t="n">
-        <v>424.3570907149651</v>
+        <v>995.3340070173751</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.375444967092</v>
+        <v>1587.352361269501</v>
       </c>
       <c r="N27" t="n">
-        <v>1638.471408366427</v>
+        <v>1587.352361269501</v>
       </c>
       <c r="O27" t="n">
-        <v>2185.34788336662</v>
+        <v>2134.228836269693</v>
       </c>
       <c r="P27" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="Q27" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S27" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.906943855537</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U27" t="n">
         <v>2016.877442379908</v>
@@ -6347,7 +6347,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.63647721443</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y27" t="n">
         <v>1111.876178449477</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>868.8780297767509</v>
+        <v>676.7441797778318</v>
       </c>
       <c r="C28" t="n">
-        <v>699.941846848844</v>
+        <v>507.807996849925</v>
       </c>
       <c r="D28" t="n">
-        <v>549.8252074365082</v>
+        <v>357.6913574375892</v>
       </c>
       <c r="E28" t="n">
-        <v>549.8252074365082</v>
+        <v>209.7782638551961</v>
       </c>
       <c r="F28" t="n">
-        <v>402.9352599385978</v>
+        <v>176.4792337520204</v>
       </c>
       <c r="G28" t="n">
-        <v>235.7210651131767</v>
+        <v>176.4792337520204</v>
       </c>
       <c r="H28" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520204</v>
       </c>
       <c r="I28" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8304710411607</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117239</v>
+        <v>432.4591980117232</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948575</v>
+        <v>820.2210160948563</v>
       </c>
       <c r="M28" t="n">
-        <v>1239.450608139316</v>
+        <v>1239.450608139314</v>
       </c>
       <c r="N28" t="n">
-        <v>1654.146473931023</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946052</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.699365782256</v>
+        <v>2311.699365782252</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.41249933569</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="R28" t="n">
-        <v>2361.553154294192</v>
+        <v>2361.553154294188</v>
       </c>
       <c r="S28" t="n">
-        <v>2178.382964033122</v>
+        <v>2178.382964033118</v>
       </c>
       <c r="T28" t="n">
-        <v>1958.704181747504</v>
+        <v>1958.7041817475</v>
       </c>
       <c r="U28" t="n">
-        <v>1669.627968062231</v>
+        <v>1669.627968062227</v>
       </c>
       <c r="V28" t="n">
-        <v>1414.943479856344</v>
+        <v>1414.94347985634</v>
       </c>
       <c r="W28" t="n">
-        <v>1317.660159818298</v>
+        <v>1125.526309819379</v>
       </c>
       <c r="X28" t="n">
-        <v>1089.670608920281</v>
+        <v>897.536758921362</v>
       </c>
       <c r="Y28" t="n">
-        <v>868.8780297767509</v>
+        <v>676.7441797778318</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D29" t="n">
         <v>1591.032978284208</v>
@@ -6451,64 +6451,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G29" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160733</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507193</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K29" t="n">
-        <v>842.9746074384002</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L29" t="n">
-        <v>1513.293909294984</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M29" t="n">
-        <v>2234.29847123402</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N29" t="n">
-        <v>2971.583449151125</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O29" t="n">
-        <v>3654.445485610262</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P29" t="n">
-        <v>4202.751434297608</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403614</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U29" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W29" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="30">
@@ -6533,31 +6533,31 @@
         <v>314.5013895084599</v>
       </c>
       <c r="G30" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>94.88738072612948</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>94.88738072612948</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K30" t="n">
-        <v>94.88738072612948</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L30" t="n">
-        <v>585.6197135698799</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="M30" t="n">
-        <v>1177.638067822007</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="N30" t="n">
-        <v>1799.734031221342</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O30" t="n">
-        <v>1903.667562284445</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P30" t="n">
         <v>2323.25108071052</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3362.426917204219</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C31" t="n">
-        <v>3193.490734276312</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D31" t="n">
-        <v>3043.374094863976</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E31" t="n">
-        <v>2895.461001281583</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F31" t="n">
-        <v>2748.571053783673</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G31" t="n">
-        <v>2581.356858958251</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H31" t="n">
-        <v>2439.484141996682</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I31" t="n">
-        <v>2356.853256396269</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
-        <v>2435.835379285822</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K31" t="n">
-        <v>2695.464106256385</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L31" t="n">
-        <v>3083.225924339519</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M31" t="n">
-        <v>3502.455516383978</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N31" t="n">
-        <v>3917.151382175684</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O31" t="n">
-        <v>4284.173839190713</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P31" t="n">
-        <v>4574.704274026917</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q31" t="n">
-        <v>4692.417407580352</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>4624.558062538854</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>4441.387872277784</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T31" t="n">
-        <v>4441.387872277784</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U31" t="n">
-        <v>4152.311658592511</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V31" t="n">
-        <v>3897.627170386624</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W31" t="n">
-        <v>3608.210000349663</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X31" t="n">
-        <v>3380.220449451646</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y31" t="n">
-        <v>3362.426917204219</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="32">
@@ -6694,37 +6694,37 @@
         <v>380.2757138127627</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160718</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507193</v>
+        <v>424.1437450015126</v>
       </c>
       <c r="K32" t="n">
-        <v>842.9746074384002</v>
+        <v>893.7741287891952</v>
       </c>
       <c r="L32" t="n">
-        <v>1462.494387944173</v>
+        <v>1513.293909294971</v>
       </c>
       <c r="M32" t="n">
-        <v>2183.49894988321</v>
+        <v>2234.298471234009</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.783927800314</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.645964259451</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P32" t="n">
-        <v>4151.951912946798</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q32" t="n">
-        <v>4515.534099052804</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S32" t="n">
         <v>4606.9501443472</v>
@@ -6770,37 +6770,37 @@
         <v>314.5013895084599</v>
       </c>
       <c r="G33" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
-        <v>241.4963299034526</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K33" t="n">
-        <v>241.4963299034526</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="L33" t="n">
-        <v>241.4963299034526</v>
+        <v>732.2286627472052</v>
       </c>
       <c r="M33" t="n">
-        <v>833.5146841555789</v>
+        <v>1324.247016999334</v>
       </c>
       <c r="N33" t="n">
-        <v>1455.610647554914</v>
+        <v>1946.342980398671</v>
       </c>
       <c r="O33" t="n">
-        <v>2002.487122555107</v>
+        <v>2493.219455398866</v>
       </c>
       <c r="P33" t="n">
-        <v>2287.92487647661</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q33" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R33" t="n">
         <v>2553.812354695766</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3214.513823621826</v>
+        <v>810.6593445000769</v>
       </c>
       <c r="C34" t="n">
-        <v>3045.577640693919</v>
+        <v>641.7231615721701</v>
       </c>
       <c r="D34" t="n">
-        <v>2895.461001281583</v>
+        <v>491.6065221598344</v>
       </c>
       <c r="E34" t="n">
-        <v>2895.461001281583</v>
+        <v>343.6934285774412</v>
       </c>
       <c r="F34" t="n">
-        <v>2748.571053783673</v>
+        <v>343.6934285774412</v>
       </c>
       <c r="G34" t="n">
-        <v>2581.356858958252</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="H34" t="n">
-        <v>2439.484141996682</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I34" t="n">
-        <v>2356.853256396269</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J34" t="n">
-        <v>2435.835379285822</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K34" t="n">
-        <v>2695.464106256386</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L34" t="n">
-        <v>3083.225924339519</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M34" t="n">
-        <v>3502.455516383978</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N34" t="n">
-        <v>3917.151382175684</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O34" t="n">
-        <v>4284.173839190713</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P34" t="n">
-        <v>4574.704274026917</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q34" t="n">
-        <v>4692.417407580352</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R34" t="n">
-        <v>4624.558062538854</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="S34" t="n">
-        <v>4608.724859022078</v>
+        <v>2246.242309074627</v>
       </c>
       <c r="T34" t="n">
-        <v>4389.04607673646</v>
+        <v>2026.563526789009</v>
       </c>
       <c r="U34" t="n">
-        <v>4389.04607673646</v>
+        <v>1985.191597614712</v>
       </c>
       <c r="V34" t="n">
-        <v>4134.361588530573</v>
+        <v>1730.507109408825</v>
       </c>
       <c r="W34" t="n">
-        <v>3844.944418493613</v>
+        <v>1441.089939371864</v>
       </c>
       <c r="X34" t="n">
-        <v>3616.954867595596</v>
+        <v>1213.100388473847</v>
       </c>
       <c r="Y34" t="n">
-        <v>3396.162288452066</v>
+        <v>992.3078093303167</v>
       </c>
     </row>
     <row r="35">
@@ -6931,10 +6931,10 @@
         <v>380.275713812763</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J35" t="n">
         <v>373.34422365072</v>
@@ -6946,28 +6946,28 @@
         <v>1462.494387944176</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297608</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403615</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
         <v>4152.297666746069</v>
@@ -7010,31 +7010,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J36" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K36" t="n">
-        <v>572.0050724668117</v>
+        <v>274.0404001883707</v>
       </c>
       <c r="L36" t="n">
-        <v>1062.737405310563</v>
+        <v>764.7727330321219</v>
       </c>
       <c r="M36" t="n">
-        <v>1654.75575956269</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="N36" t="n">
-        <v>2134.22883626969</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O36" t="n">
-        <v>2134.22883626969</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.812354695766</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>852.0312736743721</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C37" t="n">
-        <v>683.0950907464652</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D37" t="n">
-        <v>532.9784513341294</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="E37" t="n">
-        <v>385.0653577517363</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="F37" t="n">
-        <v>238.175410253826</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="G37" t="n">
-        <v>93.84834815160706</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H37" t="n">
-        <v>93.84834815160706</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J37" t="n">
         <v>172.8304710411609</v>
@@ -7128,19 +7128,19 @@
         <v>2026.563526789007</v>
       </c>
       <c r="U37" t="n">
-        <v>2026.563526789007</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V37" t="n">
-        <v>1771.87903858312</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W37" t="n">
-        <v>1482.461868546159</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X37" t="n">
-        <v>1254.472317648142</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y37" t="n">
-        <v>1033.679738504612</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C38" t="n">
         <v>1949.298676890959</v>
@@ -7162,55 +7162,55 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G38" t="n">
         <v>380.275713812763</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J38" t="n">
-        <v>424.1437450015218</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K38" t="n">
-        <v>893.7741287892036</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L38" t="n">
-        <v>1513.293909294978</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234016</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.583449151122</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.44548561026</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297608</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403615</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W38" t="n">
         <v>3468.466124132384</v>
@@ -7219,7 +7219,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J39" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K39" t="n">
-        <v>572.0050724668117</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L39" t="n">
-        <v>1062.737405310563</v>
+        <v>689.55324463298</v>
       </c>
       <c r="M39" t="n">
-        <v>1654.75575956269</v>
+        <v>1281.571598885108</v>
       </c>
       <c r="N39" t="n">
-        <v>2276.851722962027</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.812354695766</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.812354695766</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.7042115721531</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7680286442462</v>
+        <v>485.566145539011</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6513892319105</v>
+        <v>485.566145539011</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7382956495174</v>
+        <v>485.566145539011</v>
       </c>
       <c r="F40" t="n">
-        <v>93.84834815160706</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G40" t="n">
-        <v>93.84834815160706</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160706</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J40" t="n">
         <v>172.8304710411609</v>
@@ -7362,22 +7362,22 @@
         <v>2246.242309074625</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.312678372061</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.236464686788</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.551976480901</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.13480644394</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.145255545923</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3526764023928</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="41">
@@ -7399,46 +7399,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127627</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K41" t="n">
         <v>842.9746074384018</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N41" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O41" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T41" t="n">
         <v>4405.740996026519</v>
@@ -7484,34 +7484,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J42" t="n">
-        <v>241.4963299034529</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K42" t="n">
         <v>572.0050724668117</v>
       </c>
       <c r="L42" t="n">
-        <v>699.3689196510031</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M42" t="n">
-        <v>699.3689196510031</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N42" t="n">
-        <v>1321.464883050339</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O42" t="n">
-        <v>1868.341358050533</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P42" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q42" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R42" t="n">
         <v>2553.812354695766</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>784.1719286328732</v>
+        <v>1099.422008959557</v>
       </c>
       <c r="C43" t="n">
-        <v>615.2357457049663</v>
+        <v>930.4858260316502</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8655840573316</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9524904749385</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0625429770282</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G43" t="n">
-        <v>93.84834815160703</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J43" t="n">
         <v>172.8304710411609</v>
@@ -7593,28 +7593,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S43" t="n">
-        <v>2178.382964033126</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="T43" t="n">
-        <v>1958.704181747508</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="U43" t="n">
-        <v>1958.704181747508</v>
+        <v>2273.954262074192</v>
       </c>
       <c r="V43" t="n">
-        <v>1704.019693541621</v>
+        <v>2019.269773868305</v>
       </c>
       <c r="W43" t="n">
-        <v>1414.60252350466</v>
+        <v>1729.852603831344</v>
       </c>
       <c r="X43" t="n">
-        <v>1186.612972606643</v>
+        <v>1501.863052933327</v>
       </c>
       <c r="Y43" t="n">
-        <v>965.820393463113</v>
+        <v>1281.070473789797</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.807711655511</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715099</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108349</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510105</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.805338720497</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399033</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I44" t="n">
-        <v>95.37264148556116</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.2242654148076</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112157</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436022</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118414</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459573</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171645</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798343</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.297413955891</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596214</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.28428657842</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570209</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226638</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956524</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695444</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3082.755232797424</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>2908.302203516298</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>2759.367793855046</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>2600.130338849591</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>2453.595780876476</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>2317.837114922384</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>2233.17278256755</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>2234.940169772317</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>2384.586812299972</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K45" t="n">
-        <v>2718.511584471192</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L45" t="n">
-        <v>3213.837190686951</v>
+        <v>732.2286627472042</v>
       </c>
       <c r="M45" t="n">
-        <v>3213.837190686951</v>
+        <v>1324.247016999332</v>
       </c>
       <c r="N45" t="n">
-        <v>3446.983212518001</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O45" t="n">
-        <v>3998.892942757288</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P45" t="n">
-        <v>4422.516092252356</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q45" t="n">
-        <v>4655.777752627239</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
-        <v>4692.417407580352</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>4574.206621482965</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>4383.999915204738</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>4155.971833747923</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>3920.819725516181</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>3666.582368787979</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>3458.730868582446</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>3250.970569817493</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.7857517847684</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8495688568615</v>
+        <v>538.7680286442462</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7329294445258</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7329294445258</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8429819466154</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6468826614953</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9350515036934</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0843665819309</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074696</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834098</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014445</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674453</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383438</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956996</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683896</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.949064936298</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.949064936298</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.949064936298</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.873838280496</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V46" t="n">
-        <v>1870.633516693516</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W46" t="n">
-        <v>1581.216346656556</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X46" t="n">
-        <v>1353.226795758538</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y46" t="n">
-        <v>1132.434216615008</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8227,7 +8227,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119844</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>51.31264782909057</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.31264782908309</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>51.31264782909898</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>51.31264782908991</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>51.31264782910159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>51.31264782908991</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>51.31264782910057</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>51.31264782908991</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>51.31264782910085</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>51.31264782908991</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9886,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>51.31264782911239</v>
       </c>
       <c r="O26" t="n">
-        <v>51.31264782910068</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>51.31264782910091</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>51.31264782908289</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>51.31264782910151</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>51.31264782909193</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>51.31264782909307</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>51.31264782909273</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>51.31264782909125</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>141.9667471630404</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>143.3016600672238</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440913</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>84.16945386597405</v>
       </c>
       <c r="U16" t="n">
-        <v>264.3408110036042</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>46.90950374395211</v>
+        <v>20.66261545915836</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>125.5606439097834</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>84.16945386597402</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108372</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>84.16945386597411</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>68.1331674875197</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>112.4550082207873</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440913</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>190.2125114989259</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>84.16945386597398</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.9690564271413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S34" t="n">
-        <v>165.6636168768509</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1854515484204</v>
+        <v>245.2272416658661</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>22.65826139597021</v>
+        <v>90.63179579304085</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>90.63179579304088</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>143.3016600672236</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>89.83901298705396</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1854515484204</v>
+        <v>132.2817966595327</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>143.3016600672238</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>34.09972495271768</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>811667.370057905</v>
+        <v>811667.3700579049</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>811667.3700579051</v>
+        <v>811667.3700579049</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>811667.3700579051</v>
+        <v>811667.3700579049</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>811667.3700579051</v>
+        <v>811667.3700579049</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>811667.3700579051</v>
+        <v>811667.370057905</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>811667.3700579051</v>
+        <v>811667.370057905</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>811667.370057905</v>
+        <v>811667.3700579051</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>811416.2074450926</v>
+        <v>811667.370057905</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>605012.2328389197</v>
+        <v>605012.2328389188</v>
       </c>
       <c r="F2" t="n">
         <v>605012.2328389193</v>
       </c>
       <c r="G2" t="n">
-        <v>605012.2328389195</v>
+        <v>605012.2328389192</v>
       </c>
       <c r="H2" t="n">
         <v>605012.2328389192</v>
@@ -26337,25 +26337,25 @@
         <v>605012.2328389194</v>
       </c>
       <c r="J2" t="n">
-        <v>605012.2328389193</v>
+        <v>605012.2328389194</v>
       </c>
       <c r="K2" t="n">
-        <v>605012.2328389193</v>
+        <v>605012.2328389188</v>
       </c>
       <c r="L2" t="n">
+        <v>605012.2328389195</v>
+      </c>
+      <c r="M2" t="n">
         <v>605012.2328389192</v>
       </c>
-      <c r="M2" t="n">
-        <v>605012.2328389193</v>
-      </c>
       <c r="N2" t="n">
-        <v>605012.2328389192</v>
+        <v>605012.232838919</v>
       </c>
       <c r="O2" t="n">
         <v>605012.2328389189</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605012.2328389192</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545134</v>
+        <v>936509.6654545123</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.029229106619217e-09</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925898</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.862508154066745e-09</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.138088009611238e-09</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901387</v>
+        <v>124307.2113901362</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574952934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5781.971894855005</v>
+        <v>5781.97189485511</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894855289</v>
+        <v>5781.971894855102</v>
       </c>
       <c r="G4" t="n">
-        <v>5781.971894855264</v>
+        <v>5781.971894855101</v>
       </c>
       <c r="H4" t="n">
-        <v>5781.971894855249</v>
+        <v>5781.971894855101</v>
       </c>
       <c r="I4" t="n">
-        <v>5781.971894855254</v>
+        <v>5781.971894855102</v>
       </c>
       <c r="J4" t="n">
-        <v>5781.971894855251</v>
+        <v>5781.971894855415</v>
       </c>
       <c r="K4" t="n">
-        <v>5781.971894855255</v>
+        <v>5781.971894855151</v>
       </c>
       <c r="L4" t="n">
-        <v>5781.971894855263</v>
+        <v>5781.971894855003</v>
       </c>
       <c r="M4" t="n">
-        <v>5781.971894855145</v>
+        <v>5781.971894855129</v>
       </c>
       <c r="N4" t="n">
-        <v>5781.97189485514</v>
+        <v>5781.971894855127</v>
       </c>
       <c r="O4" t="n">
-        <v>5781.97189485512</v>
+        <v>5781.971894855127</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670438</v>
+        <v>5781.971894855114</v>
       </c>
     </row>
     <row r="5">
@@ -26472,25 +26472,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>100930.0394572386</v>
       </c>
       <c r="F5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="G5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="J5" t="n">
         <v>100930.0394572385</v>
@@ -26499,7 +26499,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="L5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="M5" t="n">
         <v>100930.0394572386</v>
@@ -26508,10 +26508,10 @@
         <v>100930.0394572386</v>
       </c>
       <c r="O5" t="n">
+        <v>100930.0394572386</v>
+      </c>
+      <c r="P5" t="n">
         <v>100930.0394572385</v>
-      </c>
-      <c r="P5" t="n">
-        <v>101146.6105026698</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-258110.1358074725</v>
+        <v>-258110.135807473</v>
       </c>
       <c r="C6" t="n">
-        <v>331857.7434070714</v>
+        <v>331857.7434070717</v>
       </c>
       <c r="D6" t="n">
         <v>331857.7434070716</v>
       </c>
       <c r="E6" t="n">
-        <v>-438209.4439676873</v>
+        <v>-438568.4137863303</v>
       </c>
       <c r="F6" t="n">
-        <v>498300.2214868282</v>
+        <v>497941.2516681824</v>
       </c>
       <c r="G6" t="n">
-        <v>498300.2214868256</v>
+        <v>497941.2516681823</v>
       </c>
       <c r="H6" t="n">
-        <v>498300.2214868254</v>
+        <v>497941.2516681823</v>
       </c>
       <c r="I6" t="n">
-        <v>498300.2214868256</v>
+        <v>497941.2516681826</v>
       </c>
       <c r="J6" t="n">
-        <v>321877.0022942325</v>
+        <v>321518.0324755926</v>
       </c>
       <c r="K6" t="n">
-        <v>498300.2214868255</v>
+        <v>497941.2516681791</v>
       </c>
       <c r="L6" t="n">
-        <v>498300.2214868255</v>
+        <v>497941.2516681816</v>
       </c>
       <c r="M6" t="n">
-        <v>373993.0100966869</v>
+        <v>373634.0402780462</v>
       </c>
       <c r="N6" t="n">
-        <v>498300.2214868254</v>
+        <v>497941.2516681822</v>
       </c>
       <c r="O6" t="n">
-        <v>498300.2214868253</v>
+        <v>497941.2516681821</v>
       </c>
       <c r="P6" t="n">
-        <v>492533.6140882112</v>
+        <v>497941.2516681824</v>
       </c>
     </row>
   </sheetData>
@@ -26737,37 +26737,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>1358.041048716386</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1358.041048716386</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1358.041048716386</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1358.041048716386</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1358.041048716386</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1358.041048716382</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1358.041048716386</v>
+      </c>
+      <c r="L3" t="n">
         <v>1358.041048716387</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1358.041048716384</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1358.041048716384</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1358.041048716384</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1358.041048716384</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1358.041048716384</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1358.041048716384</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1358.041048716384</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
@@ -26779,7 +26779,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844993005</v>
+        <v>980.2973844992991</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.733754661422048e-12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26983,16 +26983,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-2.98998703304576e-12</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.092726157978177e-12</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="M3" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625288375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405321</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405323</v>
+        <v>498.8170791405327</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405321</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,10 +27387,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>351.0915695702944</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>137.0042322786515</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>232.3417337640103</v>
+        <v>227.2183198663264</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>117.7038016590349</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>23.62333149860825</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>19.88405377167442</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>96.23367420798925</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>170.3614571161747</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>33.41855346988776</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>45.92506558246366</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>209.3090565215979</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293319</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665722</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>100.5719078530532</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>471.688653684823</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>241.1179762803376</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286956</v>
+        <v>273.0542121815558</v>
       </c>
       <c r="R12" t="n">
-        <v>181.3625385436715</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R13" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377418</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122275</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704056</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874058</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830421</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364251</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293295</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229594</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086939</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687513</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148598</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987158</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854255</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665716</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901934</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540901</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088186</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>284.1705781691643</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745716</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504291</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426195</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982445</v>
+        <v>489.7119024980487</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286947</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436711</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862153</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821091</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013751</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291839</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548564</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284915</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>173.139102227333</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900882</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640613</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265016</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416869</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465957</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>296.186526428242</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561739</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R16" t="n">
-        <v>110.1126397860858</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851322</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
-        <v>10.46359496551968</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704641</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377418</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122275</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704056</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874058</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830421</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364251</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293295</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229594</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086939</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687513</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148598</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987158</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854255</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665716</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901934</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540901</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088186</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735814</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745716</v>
+        <v>271.6268178754087</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504291</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>397.1046860936046</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426195</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982445</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862153</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821091</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013751</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291839</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548564</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284915</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J19" t="n">
-        <v>173.139102227333</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900882</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640613</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265016</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416869</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465957</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P19" t="n">
-        <v>296.186526428242</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561739</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860858</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851322</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551968</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704641</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377418</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122275</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704056</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874058</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830421</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364251</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293295</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229594</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086939</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687513</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148598</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987158</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854255</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665716</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4367569201901934</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540901</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088186</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>100.571907853053</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735814</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>471.6886536848218</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>332.2196605786536</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504291</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426195</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982445</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286947</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862153</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821091</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013751</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291839</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548564</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284915</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
-        <v>173.139102227333</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900882</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640613</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265016</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416869</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465957</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
-        <v>296.186526428242</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561739</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860858</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851322</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551968</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704641</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377418</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122275</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704056</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874058</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830421</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364251</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293295</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229594</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086939</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687513</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148598</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987158</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854255</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665716</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4367569201901934</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540901</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088186</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
-        <v>471.6886536848218</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745716</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504291</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N24" t="n">
-        <v>367.6453723515902</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426195</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286947</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>181.3625385436711</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862153</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821091</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013751</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291839</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H25" t="n">
-        <v>21.77318271548564</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284915</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J25" t="n">
-        <v>173.139102227333</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900882</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640613</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265016</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416869</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465957</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P25" t="n">
-        <v>296.186526428242</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561739</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R25" t="n">
-        <v>110.1126397860858</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851322</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T25" t="n">
-        <v>10.46359496551968</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704641</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377418</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122275</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704056</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J26" t="n">
-        <v>463.3649706874058</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K26" t="n">
-        <v>694.4639760830421</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364251</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293295</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229594</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086939</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687513</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148598</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987158</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S26" t="n">
-        <v>124.4074789854255</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T26" t="n">
-        <v>23.89879272665716</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4367569201901934</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.921069425540901</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H27" t="n">
-        <v>28.21138103088186</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K27" t="n">
-        <v>471.6886536848218</v>
+        <v>403.6044129846353</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504291</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927627</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426195</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P27" t="n">
-        <v>470.477707510528</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>181.3625385436711</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.25758340862153</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821091</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1921756201013751</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.448926481291839</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H28" t="n">
-        <v>21.77318271548564</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284915</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J28" t="n">
-        <v>173.139102227333</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K28" t="n">
-        <v>284.5207311900882</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640613</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265016</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416869</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465957</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P28" t="n">
-        <v>296.186526428242</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q28" t="n">
-        <v>205.0641983561739</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R28" t="n">
-        <v>110.1126397860858</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851322</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T28" t="n">
-        <v>10.46359496551968</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1335778080704641</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377418</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122275</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704056</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>463.3649706874058</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K29" t="n">
-        <v>694.4639760830421</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364251</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293295</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229594</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086939</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687513</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148598</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987158</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S29" t="n">
-        <v>124.4074789854255</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T29" t="n">
-        <v>23.89879272665716</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4367569201901934</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.921069425540901</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H30" t="n">
-        <v>28.21138103088186</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I30" t="n">
-        <v>100.571907853053</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>634.2436048745716</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504291</v>
+        <v>640.3146339032915</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927627</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O30" t="n">
-        <v>247.5796091546494</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P30" t="n">
-        <v>557.7961431982445</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286947</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.25758340862153</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821091</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1921756201013751</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.448926481291839</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H31" t="n">
-        <v>21.77318271548564</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284915</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J31" t="n">
-        <v>173.139102227333</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K31" t="n">
-        <v>284.5207311900882</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640613</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265016</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416869</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465957</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P31" t="n">
-        <v>296.186526428242</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.0641983561739</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R31" t="n">
-        <v>110.1126397860858</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851322</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T31" t="n">
-        <v>10.46359496551968</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1335778080704641</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377417</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122274</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704056</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J32" t="n">
-        <v>463.3649706874057</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K32" t="n">
-        <v>694.463976083042</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L32" t="n">
-        <v>861.543971036425</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M32" t="n">
-        <v>958.6336695293294</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229593</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086938</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P32" t="n">
-        <v>785.0773883687511</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148597</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987157</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S32" t="n">
-        <v>124.4074789854255</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T32" t="n">
-        <v>23.89879272665716</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4367569201901933</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.9210694255409</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H33" t="n">
-        <v>28.21138103088186</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>275.9770021735814</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M33" t="n">
-        <v>740.132371550429</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927626</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426194</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P33" t="n">
-        <v>422.2953709714034</v>
+        <v>195.1793561990784</v>
       </c>
       <c r="Q33" t="n">
-        <v>372.8719498286947</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>181.3625385436711</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.25758340862151</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821091</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1921756201013751</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.448926481291839</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H34" t="n">
-        <v>21.77318271548564</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284914</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J34" t="n">
-        <v>173.139102227333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K34" t="n">
-        <v>284.5207311900882</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640613</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M34" t="n">
-        <v>383.8803574265016</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416869</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465957</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P34" t="n">
-        <v>296.1865264282419</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.0641983561739</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R34" t="n">
-        <v>110.1126397860858</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851322</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T34" t="n">
-        <v>10.46359496551967</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1335778080704641</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33739,7 +33739,7 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>471.6886536848224</v>
+        <v>170.7142372419526</v>
       </c>
       <c r="L36" t="n">
         <v>634.2436048745724</v>
@@ -33748,16 +33748,16 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N36" t="n">
-        <v>615.6579511813131</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P36" t="n">
         <v>557.7961431982453</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33976,10 +33976,10 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745724</v>
+        <v>591.1371219309115</v>
       </c>
       <c r="M39" t="n">
         <v>740.1323715504301</v>
@@ -33988,13 +33988,13 @@
         <v>759.7214730927637</v>
       </c>
       <c r="O39" t="n">
-        <v>422.3544583169088</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34216,25 +34216,25 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>267.2047304709766</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N42" t="n">
         <v>759.7214730927637</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.2575834086216</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N45" t="n">
-        <v>366.8427442359094</v>
+        <v>164.214510350927</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35260,10 +35260,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664402</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.732300926371</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134837</v>
+        <v>605.1570404425736</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>178.6700086136676</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.04952785305322</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>333.847214710464</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>102.5635965004634</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981769</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426741</v>
+        <v>133.0724380955343</v>
       </c>
       <c r="R12" t="n">
-        <v>35.68303457970759</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606363</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607195</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380615</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664379</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020568</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263685</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870071</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134817</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>418.5673812695093</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845836</v>
+        <v>178.6700086136741</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>146.3291391948053</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946974</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284108</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981751</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839143</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426732</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>35.68303457970714</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066027</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642053</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243774</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883422</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209155</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606354</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931354</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044795</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607195</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380615</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664379</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020568</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N17" t="n">
-        <v>796.04494875547</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870071</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134817</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404103</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845836</v>
+        <v>178.6700086136741</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.1393755069147</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946974</v>
+        <v>133.0724380955345</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284108</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>265.7629740102714</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981751</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839143</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066027</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642053</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243774</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883422</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209155</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606354</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931354</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044795</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607195</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380615</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664379</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020568</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263685</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870071</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>605.1570404425822</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404103</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845836</v>
+        <v>178.6700086136741</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.049527853052965</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069147</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>333.8472147104628</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>193.6652807987795</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284108</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981751</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839143</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426732</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066027</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642053</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243774</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883422</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209155</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606354</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931354</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044795</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607195</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380615</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664379</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020568</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N23" t="n">
-        <v>744.7323009263685</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870071</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134817</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q23" t="n">
-        <v>418.5673812695111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845836</v>
+        <v>178.6700086136741</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
-        <v>333.8472147104628</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946974</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284108</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N24" t="n">
-        <v>236.3036602682569</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981751</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426732</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>35.68303457970714</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066027</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642053</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L25" t="n">
-        <v>391.6786041243774</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883422</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209155</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606354</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931354</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044795</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607195</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380615</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7775560664379</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M26" t="n">
-        <v>728.2874363020568</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N26" t="n">
-        <v>744.7323009263685</v>
+        <v>796.0449487554793</v>
       </c>
       <c r="O26" t="n">
-        <v>741.0722806161078</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134817</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404103</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845836</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K27" t="n">
-        <v>333.8472147104628</v>
+        <v>265.7629740102763</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284108</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094294</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>552.4004797981751</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P27" t="n">
-        <v>336.5033000961977</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>35.68303457970714</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066027</v>
+        <v>79.77992211065995</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642053</v>
+        <v>262.2512393642048</v>
       </c>
       <c r="L28" t="n">
-        <v>391.6786041243774</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883422</v>
+        <v>423.4642343883416</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209155</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606354</v>
+        <v>370.7297545606348</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931354</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044795</v>
+        <v>118.9021551044792</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607195</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380615</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L29" t="n">
-        <v>677.0902038955388</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M29" t="n">
-        <v>728.2874363020568</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N29" t="n">
-        <v>744.7323009263685</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870071</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134817</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404103</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R29" t="n">
-        <v>127.3573607845836</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.049527853052965</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>495.6892250946974</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284108</v>
+        <v>498.1805999812731</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094294</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O30" t="n">
-        <v>104.983364710205</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839143</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426732</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066027</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K31" t="n">
-        <v>262.2512393642053</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L31" t="n">
-        <v>391.6786041243774</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883422</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209155</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606354</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931354</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044795</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607194</v>
+        <v>333.6317139898036</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380614</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7775560664377</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M32" t="n">
-        <v>728.2874363020567</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N32" t="n">
-        <v>744.7323009263685</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O32" t="n">
-        <v>689.759632787007</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P32" t="n">
-        <v>553.8443926134817</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404102</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R32" t="n">
-        <v>178.6700086136851</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>149.1393755069147</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284106</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094293</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O33" t="n">
-        <v>552.400479798175</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P33" t="n">
-        <v>288.3209635570732</v>
+        <v>61.20494878474815</v>
       </c>
       <c r="Q33" t="n">
-        <v>232.8901757426731</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>35.68303457970711</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211066024</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K34" t="n">
-        <v>262.2512393642053</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L34" t="n">
-        <v>391.6786041243774</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883422</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N34" t="n">
-        <v>418.8847129209155</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O34" t="n">
-        <v>370.7297545606353</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P34" t="n">
-        <v>293.4650856931354</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044795</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>625.777556066439</v>
       </c>
       <c r="M35" t="n">
-        <v>728.287436302058</v>
+        <v>779.60008413115</v>
       </c>
       <c r="N35" t="n">
         <v>744.7323009263698</v>
@@ -37323,7 +37323,7 @@
         <v>689.7596327870084</v>
       </c>
       <c r="P35" t="n">
-        <v>605.1570404425759</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q35" t="n">
         <v>367.2547334404111</v>
@@ -37387,7 +37387,7 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>333.8472147104634</v>
+        <v>32.87279826759363</v>
       </c>
       <c r="L36" t="n">
         <v>495.6892250946982</v>
@@ -37396,16 +37396,16 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N36" t="n">
-        <v>484.3162390979798</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P36" t="n">
         <v>423.8217357839151</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>333.6317139898129</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K38" t="n">
         <v>474.3741250380625</v>
       </c>
       <c r="L38" t="n">
-        <v>625.777556066439</v>
+        <v>677.0902038955309</v>
       </c>
       <c r="M38" t="n">
         <v>728.287436302058</v>
@@ -37624,10 +37624,10 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946982</v>
+        <v>452.5827421510373</v>
       </c>
       <c r="M39" t="n">
         <v>597.9983376284117</v>
@@ -37636,13 +37636,13 @@
         <v>628.3797610094305</v>
       </c>
       <c r="O39" t="n">
-        <v>279.7582138724644</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>474.3741250380625</v>
       </c>
       <c r="L41" t="n">
-        <v>625.777556066439</v>
+        <v>677.0902038955309</v>
       </c>
       <c r="M41" t="n">
         <v>728.287436302058</v>
@@ -37797,7 +37797,7 @@
         <v>689.7596327870084</v>
       </c>
       <c r="P41" t="n">
-        <v>605.157040442574</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q41" t="n">
         <v>367.2547334404111</v>
@@ -37864,25 +37864,25 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>128.6503506911024</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N42" t="n">
         <v>628.3797610094305</v>
       </c>
       <c r="O42" t="n">
-        <v>552.400479798176</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>677.09020389553</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5010321525761</v>
+        <v>32.87279826759372</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2414156.006246174</v>
+        <v>2415975.277937215</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9964927.035287924</v>
+        <v>9964927.035287909</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430763.7823717232</v>
+        <v>430763.7823717245</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9591418.341927968</v>
+        <v>9591418.34192797</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>321.5296920684223</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>14.92708396620971</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>133.9069145994739</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>24.91932345750163</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>300.2994412657489</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>25.31590541686258</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.31590541686258</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>21.05984910492395</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="E10" t="n">
-        <v>100.5088970641055</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127574</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1466,7 +1466,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>23.94516103140406</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>64.44601915223835</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127578</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1773,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>6.999582804454167</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>133.3125405967878</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T17" t="n">
         <v>199.1970568374742</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,7 +1940,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4819944627618</v>
+        <v>216.3475158394429</v>
       </c>
       <c r="U19" t="n">
-        <v>265.5228360892621</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876461</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,7 +2177,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>81.3725990111929</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>141.4740238230462</v>
       </c>
       <c r="U22" t="n">
         <v>286.1854515484204</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T23" t="n">
         <v>199.1970568374742</v>
@@ -2414,7 +2414,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>83.07736723265373</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>83.55410938283609</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S25" t="n">
         <v>181.338488358459</v>
@@ -2572,7 +2572,7 @@
         <v>409.8432760127577</v>
       </c>
       <c r="H26" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081983</v>
       </c>
       <c r="T26" t="n">
         <v>199.1970568374742</v>
@@ -2651,7 +2651,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561465</v>
+        <v>84.0240632056146</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952163</v>
       </c>
       <c r="T27" t="n">
         <v>188.3907690366107</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>32.9660398021439</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440925</v>
+        <v>81.80457674440915</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.1807515910839</v>
+        <v>67.18075159108373</v>
       </c>
       <c r="S28" t="n">
-        <v>181.3384883584591</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4819944627618</v>
+        <v>73.81047907825339</v>
       </c>
       <c r="U28" t="n">
         <v>286.1854515484204</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H29" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081983</v>
       </c>
       <c r="T29" t="n">
         <v>199.1970568374742</v>
@@ -2888,7 +2888,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561457</v>
+        <v>84.0240632056146</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952163</v>
       </c>
       <c r="T30" t="n">
         <v>188.3907690366107</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>64.44601915223838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>149.2013111239783</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.338488358459</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H32" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081983</v>
       </c>
       <c r="T32" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U32" t="n">
         <v>250.9088959876463</v>
@@ -3125,7 +3125,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561452</v>
+        <v>84.0240632056146</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952163</v>
       </c>
       <c r="T33" t="n">
         <v>188.3907690366107</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>64.44601915223407</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>67.18075159108373</v>
       </c>
       <c r="S34" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T34" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U34" t="n">
-        <v>40.95820988255431</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H35" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081983</v>
       </c>
       <c r="T35" t="n">
-        <v>199.1970568374745</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
         <v>250.9088959876463</v>
@@ -3362,7 +3362,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561457</v>
+        <v>84.0240632056146</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952163</v>
       </c>
       <c r="T36" t="n">
         <v>188.3907690366107</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>92.39246241887973</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>74.91025708412607</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440915</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108373</v>
       </c>
       <c r="S37" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1854515484204</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8432760127574</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H38" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081973</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
@@ -3599,7 +3599,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561457</v>
+        <v>84.0240632056146</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952163</v>
       </c>
       <c r="T39" t="n">
         <v>188.3907690366107</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>76.61502530558695</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>64.44601915223404</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>67.18075159108373</v>
       </c>
       <c r="S40" t="n">
         <v>181.338488358459</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H41" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081983</v>
       </c>
       <c r="T41" t="n">
         <v>199.1970568374742</v>
@@ -3836,7 +3836,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561457</v>
+        <v>84.0240632056146</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952163</v>
       </c>
       <c r="T42" t="n">
         <v>188.3907690366107</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>2.119387955703191</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U43" t="n">
-        <v>153.9036548888877</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H44" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081983</v>
       </c>
       <c r="T44" t="n">
         <v>199.1970568374742</v>
@@ -4073,7 +4073,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>84.02406320561457</v>
+        <v>84.0240632056146</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952163</v>
       </c>
       <c r="T45" t="n">
         <v>188.3907690366107</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>23.94516103140406</v>
+        <v>23.94516103139978</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1606.946621408918</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C2" t="n">
-        <v>1237.984104468507</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D2" t="n">
-        <v>879.7184058617563</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E2" t="n">
-        <v>493.9301532635121</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F2" t="n">
-        <v>486.9846525143086</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>69.02084441249548</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>69.02084441249548</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>702.9579504109782</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="C4" t="n">
-        <v>702.9579504109782</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="D4" t="n">
-        <v>552.8413109986425</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E4" t="n">
-        <v>404.9282174162494</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>404.9282174162494</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545818</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4524,16 +4524,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>702.9579504109782</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>702.9579504109782</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X4" t="n">
-        <v>702.9579504109782</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y4" t="n">
-        <v>702.9579504109782</v>
+        <v>473.4444960005476</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>378.1446555862789</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1446555862789</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>378.1446555862789</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>378.1446555862789</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>371.1991548370755</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>357.2757507756664</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>764.7444956504007</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4713,16 +4713,16 @@
         <v>79.51460345355898</v>
       </c>
       <c r="F7" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2675.876516164764</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2499.699028478934</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2499.699028478934</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2245.937243117025</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1914.874355773455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1562.105700503341</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1188.639942242261</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4892,40 +4892,40 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>291.7960311703076</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="C10" t="n">
-        <v>291.7960311703076</v>
+        <v>156.7517573047577</v>
       </c>
       <c r="D10" t="n">
-        <v>291.7960311703076</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>473.4444960005474</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="11">
@@ -5029,7 +5029,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G11" t="n">
         <v>380.275713812763</v>
@@ -5041,22 +5041,22 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J11" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K11" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O11" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P11" t="n">
         <v>4202.751434297607</v>
@@ -5123,22 +5123,22 @@
         <v>241.496329903453</v>
       </c>
       <c r="K12" t="n">
-        <v>241.496329903453</v>
+        <v>302.0892292003572</v>
       </c>
       <c r="L12" t="n">
-        <v>241.496329903453</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M12" t="n">
-        <v>833.5146841555808</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N12" t="n">
-        <v>1455.610647554917</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O12" t="n">
-        <v>2002.487122555111</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P12" t="n">
-        <v>2422.070640981187</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.812354695766</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>562.9550599890988</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7680286442462</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6513892319105</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7382956495174</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F13" t="n">
-        <v>93.84834815160704</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G13" t="n">
-        <v>93.84834815160704</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H13" t="n">
         <v>93.84834815160704</v>
@@ -5199,10 +5199,10 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J13" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L13" t="n">
         <v>820.2210160948589</v>
@@ -5223,28 +5223,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S13" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T13" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U13" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V13" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W13" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X13" t="n">
-        <v>965.3961039628687</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y13" t="n">
-        <v>744.6035248193385</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D14" t="n">
         <v>1591.032978284208</v>
@@ -5269,7 +5269,7 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H14" t="n">
         <v>93.84834815160704</v>
@@ -5278,28 +5278,28 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507201</v>
+        <v>424.1437450015209</v>
       </c>
       <c r="K14" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892027</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P14" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q14" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R14" t="n">
         <v>4692.417407580352</v>
@@ -5311,19 +5311,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>241.496329903453</v>
       </c>
       <c r="K15" t="n">
-        <v>572.0050724668118</v>
+        <v>302.0892292003572</v>
       </c>
       <c r="L15" t="n">
-        <v>1062.737405310563</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M15" t="n">
-        <v>1654.755759562691</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N15" t="n">
-        <v>1654.755759562691</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O15" t="n">
-        <v>2201.632234562885</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P15" t="n">
         <v>2553.812354695766</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.1153653172709</v>
+        <v>714.774497233218</v>
       </c>
       <c r="C16" t="n">
-        <v>411.179182389364</v>
+        <v>545.8383143053111</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0625429770282</v>
+        <v>395.7216748929753</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0625429770282</v>
+        <v>247.8085813105822</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0625429770282</v>
+        <v>100.9186338126719</v>
       </c>
       <c r="G16" t="n">
-        <v>93.84834815160704</v>
+        <v>100.9186338126719</v>
       </c>
       <c r="H16" t="n">
         <v>93.84834815160704</v>
@@ -5436,10 +5436,10 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J16" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L16" t="n">
         <v>820.2210160948589</v>
@@ -5466,22 +5466,22 @@
         <v>2178.382964033126</v>
       </c>
       <c r="T16" t="n">
-        <v>2043.723832117179</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="U16" t="n">
-        <v>1754.647618431906</v>
+        <v>1889.306750347853</v>
       </c>
       <c r="V16" t="n">
-        <v>1499.963130226019</v>
+        <v>1634.622262141966</v>
       </c>
       <c r="W16" t="n">
-        <v>1210.545960189058</v>
+        <v>1345.205092105005</v>
       </c>
       <c r="X16" t="n">
-        <v>982.5564092910407</v>
+        <v>1117.215541206988</v>
       </c>
       <c r="Y16" t="n">
-        <v>761.7638301475106</v>
+        <v>896.4229620634577</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D17" t="n">
         <v>1591.032978284208</v>
@@ -5503,10 +5503,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G17" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H17" t="n">
         <v>93.84834815160704</v>
@@ -5515,28 +5515,28 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K17" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O17" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P17" t="n">
-        <v>4151.951912946808</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q17" t="n">
-        <v>4515.534099052815</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R17" t="n">
         <v>4692.417407580352</v>
@@ -5548,19 +5548,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X17" t="n">
         <v>3095.000365871304</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="18">
@@ -5600,19 +5600,19 @@
         <v>241.496329903453</v>
       </c>
       <c r="L18" t="n">
-        <v>373.2380436180322</v>
+        <v>241.496329903453</v>
       </c>
       <c r="M18" t="n">
-        <v>965.25639787016</v>
+        <v>833.5146841555805</v>
       </c>
       <c r="N18" t="n">
-        <v>1587.352361269496</v>
+        <v>1455.610647554917</v>
       </c>
       <c r="O18" t="n">
-        <v>2134.22883626969</v>
+        <v>2002.487122555111</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.812354695766</v>
+        <v>2422.070640981187</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.812354695766</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>804.6189678792535</v>
+        <v>785.3178666362255</v>
       </c>
       <c r="C19" t="n">
-        <v>635.6827849513467</v>
+        <v>616.3816837083186</v>
       </c>
       <c r="D19" t="n">
-        <v>485.566145539011</v>
+        <v>466.2650442959829</v>
       </c>
       <c r="E19" t="n">
-        <v>485.566145539011</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="F19" t="n">
-        <v>485.566145539011</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="G19" t="n">
         <v>318.3519507135898</v>
@@ -5673,10 +5673,10 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J19" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L19" t="n">
         <v>820.2210160948589</v>
@@ -5697,28 +5697,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S19" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T19" t="n">
-        <v>2026.563526789007</v>
+        <v>1959.85011975086</v>
       </c>
       <c r="U19" t="n">
-        <v>1758.358641850358</v>
+        <v>1959.85011975086</v>
       </c>
       <c r="V19" t="n">
-        <v>1503.674153644471</v>
+        <v>1705.165631544973</v>
       </c>
       <c r="W19" t="n">
-        <v>1214.256983607511</v>
+        <v>1415.748461508013</v>
       </c>
       <c r="X19" t="n">
-        <v>986.2674327094933</v>
+        <v>1187.758910609995</v>
       </c>
       <c r="Y19" t="n">
-        <v>986.2674327094933</v>
+        <v>966.9663314664652</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D20" t="n">
         <v>1591.032978284208</v>
@@ -5740,40 +5740,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I20" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K20" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.951912946808</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q20" t="n">
-        <v>4515.534099052815</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580352</v>
@@ -5785,19 +5785,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="21">
@@ -5834,16 +5834,16 @@
         <v>241.496329903453</v>
       </c>
       <c r="K21" t="n">
-        <v>572.0050724668118</v>
+        <v>302.0892292003572</v>
       </c>
       <c r="L21" t="n">
-        <v>1062.737405310563</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M21" t="n">
-        <v>1654.755759562691</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N21" t="n">
-        <v>2276.851722962027</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O21" t="n">
         <v>2553.812354695766</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>495.0957149476001</v>
+        <v>571.8714428665047</v>
       </c>
       <c r="C22" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D22" t="n">
-        <v>176.0428926073575</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E22" t="n">
-        <v>176.0428926073575</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F22" t="n">
-        <v>176.0428926073575</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G22" t="n">
-        <v>93.84834815160704</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H22" t="n">
         <v>93.84834815160704</v>
@@ -5910,10 +5910,10 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J22" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L22" t="n">
         <v>820.2210160948589</v>
@@ -5940,22 +5940,22 @@
         <v>2178.382964033126</v>
       </c>
       <c r="T22" t="n">
-        <v>1958.704181747508</v>
+        <v>2035.479909666413</v>
       </c>
       <c r="U22" t="n">
-        <v>1669.627968062235</v>
+        <v>1746.403695981139</v>
       </c>
       <c r="V22" t="n">
-        <v>1414.943479856348</v>
+        <v>1491.719207775252</v>
       </c>
       <c r="W22" t="n">
-        <v>1125.526309819387</v>
+        <v>1202.302037738292</v>
       </c>
       <c r="X22" t="n">
-        <v>897.5367589213699</v>
+        <v>974.3124868402746</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.7441797778398</v>
+        <v>753.5199076967444</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K23" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P23" t="n">
-        <v>4151.951912946808</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q23" t="n">
-        <v>4515.534099052815</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580352</v>
@@ -6071,22 +6071,22 @@
         <v>241.496329903453</v>
       </c>
       <c r="K24" t="n">
-        <v>572.0050724668118</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L24" t="n">
         <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>1654.755759562691</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N24" t="n">
-        <v>2276.851722962027</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.812354695766</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.812354695766</v>
@@ -6126,16 +6126,16 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C25" t="n">
-        <v>411.179182389364</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0625429770282</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0625429770282</v>
+        <v>178.2464384373001</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0625429770282</v>
+        <v>178.2464384373001</v>
       </c>
       <c r="G25" t="n">
         <v>93.84834815160704</v>
@@ -6147,10 +6147,10 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J25" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L25" t="n">
         <v>820.2210160948589</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D26" t="n">
-        <v>1591.03297828421</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E26" t="n">
         <v>1205.244725685965</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963575</v>
+        <v>794.258820896357</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127638</v>
+        <v>380.2757138127634</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160777</v>
+        <v>93.84834815160741</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507186</v>
+        <v>373.3442236507193</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074383984</v>
+        <v>842.9746074384002</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944171</v>
+        <v>1462.494387944173</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883205</v>
+        <v>2183.49894988321</v>
       </c>
       <c r="N26" t="n">
-        <v>2971.58344915113</v>
+        <v>2971.583449151125</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610265</v>
+        <v>3654.445485610262</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297611</v>
+        <v>4202.751434297608</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403616</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U26" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="27">
@@ -6281,61 +6281,61 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C27" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D27" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E27" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F27" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G27" t="n">
         <v>178.7211392683895</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J27" t="n">
-        <v>241.4963299034522</v>
+        <v>241.4963299034526</v>
       </c>
       <c r="K27" t="n">
-        <v>504.6016741736257</v>
+        <v>241.4963299034526</v>
       </c>
       <c r="L27" t="n">
-        <v>995.3340070173751</v>
+        <v>373.2380436180366</v>
       </c>
       <c r="M27" t="n">
-        <v>1587.352361269501</v>
+        <v>965.256397870163</v>
       </c>
       <c r="N27" t="n">
-        <v>1587.352361269501</v>
+        <v>1587.352361269498</v>
       </c>
       <c r="O27" t="n">
-        <v>2134.228836269693</v>
+        <v>2134.228836269691</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S27" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U27" t="n">
         <v>2016.877442379908</v>
@@ -6347,7 +6347,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y27" t="n">
         <v>1111.876178449477</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>676.7441797778318</v>
+        <v>640.2184577602306</v>
       </c>
       <c r="C28" t="n">
-        <v>507.807996849925</v>
+        <v>471.2822748323238</v>
       </c>
       <c r="D28" t="n">
-        <v>357.6913574375892</v>
+        <v>471.2822748323238</v>
       </c>
       <c r="E28" t="n">
-        <v>209.7782638551961</v>
+        <v>323.3691812499306</v>
       </c>
       <c r="F28" t="n">
-        <v>176.4792337520204</v>
+        <v>176.4792337520203</v>
       </c>
       <c r="G28" t="n">
-        <v>176.4792337520204</v>
+        <v>176.4792337520203</v>
       </c>
       <c r="H28" t="n">
-        <v>176.4792337520204</v>
+        <v>176.4792337520203</v>
       </c>
       <c r="I28" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411607</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117239</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948575</v>
       </c>
       <c r="M28" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139316</v>
       </c>
       <c r="N28" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931023</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946052</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.699365782256</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="R28" t="n">
-        <v>2361.553154294188</v>
+        <v>2361.553154294192</v>
       </c>
       <c r="S28" t="n">
-        <v>2178.382964033118</v>
+        <v>2178.382964033122</v>
       </c>
       <c r="T28" t="n">
-        <v>1958.7041817475</v>
+        <v>2103.826924560139</v>
       </c>
       <c r="U28" t="n">
-        <v>1669.627968062227</v>
+        <v>1814.750710874865</v>
       </c>
       <c r="V28" t="n">
-        <v>1414.94347985634</v>
+        <v>1560.066222668979</v>
       </c>
       <c r="W28" t="n">
-        <v>1125.526309819379</v>
+        <v>1270.649052632018</v>
       </c>
       <c r="X28" t="n">
-        <v>897.536758921362</v>
+        <v>1042.659501734001</v>
       </c>
       <c r="Y28" t="n">
-        <v>676.7441797778318</v>
+        <v>821.8669225904704</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D29" t="n">
         <v>1591.032978284208</v>
@@ -6451,64 +6451,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127633</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160738</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507193</v>
       </c>
       <c r="K29" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384002</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944173</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.49894988321</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800314</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.645964259451</v>
       </c>
       <c r="P29" t="n">
-        <v>4151.951912946806</v>
+        <v>4151.951912946798</v>
       </c>
       <c r="Q29" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U29" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W29" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="30">
@@ -6533,34 +6533,34 @@
         <v>314.5013895084599</v>
       </c>
       <c r="G30" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J30" t="n">
-        <v>241.4963299034529</v>
+        <v>241.4963299034526</v>
       </c>
       <c r="K30" t="n">
-        <v>241.4963299034529</v>
+        <v>241.4963299034526</v>
       </c>
       <c r="L30" t="n">
-        <v>241.4963299034529</v>
+        <v>373.2380436180366</v>
       </c>
       <c r="M30" t="n">
-        <v>734.6951238849133</v>
+        <v>965.256397870163</v>
       </c>
       <c r="N30" t="n">
-        <v>1356.791087284249</v>
+        <v>1587.352361269498</v>
       </c>
       <c r="O30" t="n">
-        <v>1903.667562284444</v>
+        <v>2134.228836269691</v>
       </c>
       <c r="P30" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.812354695766</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>495.0957149476001</v>
+        <v>852.3722300260553</v>
       </c>
       <c r="C31" t="n">
-        <v>326.1595320196932</v>
+        <v>683.4360470981484</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0625429770282</v>
+        <v>533.3194076858126</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0625429770282</v>
+        <v>533.3194076858126</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0625429770282</v>
+        <v>386.4294601879022</v>
       </c>
       <c r="G31" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131767</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411607</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117239</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948575</v>
       </c>
       <c r="M31" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139316</v>
       </c>
       <c r="N31" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931023</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946052</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782256</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="S31" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074621</v>
       </c>
       <c r="T31" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789002</v>
       </c>
       <c r="U31" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103729</v>
       </c>
       <c r="V31" t="n">
-        <v>1414.943479856348</v>
+        <v>1482.802824897842</v>
       </c>
       <c r="W31" t="n">
-        <v>1125.526309819387</v>
+        <v>1482.802824897842</v>
       </c>
       <c r="X31" t="n">
-        <v>897.5367589213699</v>
+        <v>1254.813273999825</v>
       </c>
       <c r="Y31" t="n">
-        <v>676.7441797778398</v>
+        <v>1034.020694856295</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C32" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D32" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E32" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963568</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127631</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J32" t="n">
-        <v>424.1437450015126</v>
+        <v>373.3442236507193</v>
       </c>
       <c r="K32" t="n">
-        <v>893.7741287891952</v>
+        <v>842.9746074384002</v>
       </c>
       <c r="L32" t="n">
-        <v>1513.293909294971</v>
+        <v>1462.494387944173</v>
       </c>
       <c r="M32" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.49894988321</v>
       </c>
       <c r="N32" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.783927800314</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.645964259451</v>
       </c>
       <c r="P32" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946798</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.534099052804</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U32" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V32" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W32" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X32" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="33">
@@ -6770,31 +6770,31 @@
         <v>314.5013895084599</v>
       </c>
       <c r="G33" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J33" t="n">
-        <v>241.4963299034533</v>
+        <v>241.4963299034526</v>
       </c>
       <c r="K33" t="n">
-        <v>241.4963299034533</v>
+        <v>241.4963299034526</v>
       </c>
       <c r="L33" t="n">
-        <v>732.2286627472052</v>
+        <v>373.2380436180366</v>
       </c>
       <c r="M33" t="n">
-        <v>1324.247016999334</v>
+        <v>965.256397870163</v>
       </c>
       <c r="N33" t="n">
-        <v>1946.342980398671</v>
+        <v>1587.352361269498</v>
       </c>
       <c r="O33" t="n">
-        <v>2493.219455398866</v>
+        <v>2134.228836269691</v>
       </c>
       <c r="P33" t="n">
         <v>2553.812354695766</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>810.6593445000769</v>
+        <v>495.0957149475958</v>
       </c>
       <c r="C34" t="n">
-        <v>641.7231615721701</v>
+        <v>326.1595320196889</v>
       </c>
       <c r="D34" t="n">
-        <v>491.6065221598344</v>
+        <v>326.1595320196889</v>
       </c>
       <c r="E34" t="n">
-        <v>343.6934285774412</v>
+        <v>326.1595320196889</v>
       </c>
       <c r="F34" t="n">
-        <v>343.6934285774412</v>
+        <v>326.1595320196889</v>
       </c>
       <c r="G34" t="n">
-        <v>176.4792337520201</v>
+        <v>158.9453371942677</v>
       </c>
       <c r="H34" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J34" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411607</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117239</v>
       </c>
       <c r="L34" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948575</v>
       </c>
       <c r="M34" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139316</v>
       </c>
       <c r="N34" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931023</v>
       </c>
       <c r="O34" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946052</v>
       </c>
       <c r="P34" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.699365782256</v>
       </c>
       <c r="Q34" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="R34" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294192</v>
       </c>
       <c r="S34" t="n">
-        <v>2246.242309074627</v>
+        <v>2178.382964033122</v>
       </c>
       <c r="T34" t="n">
-        <v>2026.563526789009</v>
+        <v>1958.704181747504</v>
       </c>
       <c r="U34" t="n">
-        <v>1985.191597614712</v>
+        <v>1669.627968062231</v>
       </c>
       <c r="V34" t="n">
-        <v>1730.507109408825</v>
+        <v>1414.943479856344</v>
       </c>
       <c r="W34" t="n">
-        <v>1441.089939371864</v>
+        <v>1125.526309819383</v>
       </c>
       <c r="X34" t="n">
-        <v>1213.100388473847</v>
+        <v>897.5367589213656</v>
       </c>
       <c r="Y34" t="n">
-        <v>992.3078093303167</v>
+        <v>676.7441797778355</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C35" t="n">
         <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E35" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963568</v>
       </c>
       <c r="G35" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127633</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160738</v>
       </c>
       <c r="I35" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J35" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507193</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384002</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944173</v>
       </c>
       <c r="M35" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.49894988321</v>
       </c>
       <c r="N35" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.783927800314</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610259</v>
+        <v>3654.445485610262</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297608</v>
       </c>
       <c r="Q35" t="n">
         <v>4566.333620403614</v>
@@ -6973,7 +6973,7 @@
         <v>4152.297666746069</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W35" t="n">
         <v>3468.466124132384</v>
@@ -6982,7 +6982,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H36" t="n">
         <v>93.84834815160704</v>
@@ -7016,25 +7016,25 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J36" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034526</v>
       </c>
       <c r="K36" t="n">
-        <v>274.0404001883707</v>
+        <v>572.0050724668106</v>
       </c>
       <c r="L36" t="n">
-        <v>764.7727330321219</v>
+        <v>1062.737405310561</v>
       </c>
       <c r="M36" t="n">
-        <v>1356.791087284249</v>
+        <v>1654.755759562687</v>
       </c>
       <c r="N36" t="n">
-        <v>1356.791087284249</v>
+        <v>2276.851722962022</v>
       </c>
       <c r="O36" t="n">
-        <v>1903.667562284444</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.812354695766</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>562.9550599890988</v>
+        <v>897.9446874942838</v>
       </c>
       <c r="C37" t="n">
-        <v>394.0188770611919</v>
+        <v>729.0085045663769</v>
       </c>
       <c r="D37" t="n">
-        <v>394.0188770611919</v>
+        <v>578.8918651540412</v>
       </c>
       <c r="E37" t="n">
-        <v>394.0188770611919</v>
+        <v>485.5661455390111</v>
       </c>
       <c r="F37" t="n">
-        <v>394.0188770611919</v>
+        <v>485.5661455390111</v>
       </c>
       <c r="G37" t="n">
-        <v>318.3519507135898</v>
+        <v>318.35195071359</v>
       </c>
       <c r="H37" t="n">
-        <v>176.4792337520202</v>
+        <v>176.4792337520203</v>
       </c>
       <c r="I37" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411607</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117239</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948575</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139316</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931023</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946052</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782256</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="R37" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294192</v>
       </c>
       <c r="S37" t="n">
-        <v>2246.242309074625</v>
+        <v>2361.553154294192</v>
       </c>
       <c r="T37" t="n">
-        <v>2026.563526789007</v>
+        <v>2361.553154294192</v>
       </c>
       <c r="U37" t="n">
-        <v>1737.487313103734</v>
+        <v>2072.476940608919</v>
       </c>
       <c r="V37" t="n">
-        <v>1482.802824897847</v>
+        <v>1817.792452403032</v>
       </c>
       <c r="W37" t="n">
-        <v>1193.385654860886</v>
+        <v>1528.375282366071</v>
       </c>
       <c r="X37" t="n">
-        <v>965.3961039628687</v>
+        <v>1300.385731468054</v>
       </c>
       <c r="Y37" t="n">
-        <v>744.6035248193385</v>
+        <v>1079.593152324524</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C38" t="n">
         <v>1949.298676890959</v>
@@ -7162,7 +7162,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G38" t="n">
         <v>380.275713812763</v>
@@ -7174,28 +7174,28 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J38" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507193</v>
       </c>
       <c r="K38" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384002</v>
       </c>
       <c r="L38" t="n">
-        <v>1513.293909294977</v>
+        <v>1462.494387944173</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.49894988321</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.783927800314</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.645964259451</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297607</v>
+        <v>4151.951912946798</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403614</v>
+        <v>4515.534099052804</v>
       </c>
       <c r="R38" t="n">
         <v>4692.417407580352</v>
@@ -7210,7 +7210,7 @@
         <v>4152.297666746069</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W38" t="n">
         <v>3468.466124132384</v>
@@ -7219,7 +7219,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>314.5013895084599</v>
       </c>
       <c r="G39" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H39" t="n">
         <v>93.84834815160704</v>
@@ -7253,25 +7253,25 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J39" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034526</v>
       </c>
       <c r="K39" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034526</v>
       </c>
       <c r="L39" t="n">
-        <v>689.55324463298</v>
+        <v>373.2380436180366</v>
       </c>
       <c r="M39" t="n">
-        <v>1281.571598885108</v>
+        <v>965.256397870163</v>
       </c>
       <c r="N39" t="n">
-        <v>1903.667562284444</v>
+        <v>1587.352361269498</v>
       </c>
       <c r="O39" t="n">
-        <v>1903.667562284444</v>
+        <v>2134.228836269691</v>
       </c>
       <c r="P39" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.812354695766</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>562.9550599890988</v>
+        <v>495.0957149475958</v>
       </c>
       <c r="C40" t="n">
-        <v>485.566145539011</v>
+        <v>326.1595320196889</v>
       </c>
       <c r="D40" t="n">
-        <v>485.566145539011</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E40" t="n">
-        <v>485.566145539011</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F40" t="n">
-        <v>485.566145539011</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G40" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H40" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I40" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J40" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411607</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117239</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948575</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139316</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931023</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946052</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782256</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="R40" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294192</v>
       </c>
       <c r="S40" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033122</v>
       </c>
       <c r="T40" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747504</v>
       </c>
       <c r="U40" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062231</v>
       </c>
       <c r="V40" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856344</v>
       </c>
       <c r="W40" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819383</v>
       </c>
       <c r="X40" t="n">
-        <v>965.3961039628687</v>
+        <v>897.5367589213656</v>
       </c>
       <c r="Y40" t="n">
-        <v>744.6035248193385</v>
+        <v>676.7441797778355</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D41" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963566</v>
+        <v>794.258820896357</v>
       </c>
       <c r="G41" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127634</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160741</v>
       </c>
       <c r="I41" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J41" t="n">
-        <v>373.34422365072</v>
+        <v>424.1437450015296</v>
       </c>
       <c r="K41" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892104</v>
       </c>
       <c r="L41" t="n">
-        <v>1513.293909294977</v>
+        <v>1513.293909294984</v>
       </c>
       <c r="M41" t="n">
-        <v>2234.298471234015</v>
+        <v>2234.29847123402</v>
       </c>
       <c r="N41" t="n">
-        <v>2971.583449151121</v>
+        <v>2971.583449151125</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610259</v>
+        <v>3654.445485610262</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297608</v>
       </c>
       <c r="Q41" t="n">
         <v>4566.333620403614</v>
@@ -7444,19 +7444,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="42">
@@ -7481,7 +7481,7 @@
         <v>314.5013895084599</v>
       </c>
       <c r="G42" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H42" t="n">
         <v>93.84834815160704</v>
@@ -7490,19 +7490,19 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J42" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034526</v>
       </c>
       <c r="K42" t="n">
-        <v>572.0050724668117</v>
+        <v>572.0050724668106</v>
       </c>
       <c r="L42" t="n">
-        <v>1062.737405310563</v>
+        <v>1062.737405310561</v>
       </c>
       <c r="M42" t="n">
-        <v>1654.75575956269</v>
+        <v>1654.755759562687</v>
       </c>
       <c r="N42" t="n">
-        <v>2276.851722962027</v>
+        <v>2276.851722962022</v>
       </c>
       <c r="O42" t="n">
         <v>2553.812354695766</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1099.422008959557</v>
+        <v>562.9550599890945</v>
       </c>
       <c r="C43" t="n">
-        <v>930.4858260316502</v>
+        <v>394.0188770611876</v>
       </c>
       <c r="D43" t="n">
-        <v>780.3691866193144</v>
+        <v>243.9022376488519</v>
       </c>
       <c r="E43" t="n">
-        <v>632.4560930369213</v>
+        <v>95.98914406645875</v>
       </c>
       <c r="F43" t="n">
-        <v>485.566145539011</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G43" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H43" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I43" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411607</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117239</v>
       </c>
       <c r="L43" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948575</v>
       </c>
       <c r="M43" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139316</v>
       </c>
       <c r="N43" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931023</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946052</v>
       </c>
       <c r="P43" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782256</v>
       </c>
       <c r="Q43" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="S43" t="n">
-        <v>2429.412499335695</v>
+        <v>2246.242309074621</v>
       </c>
       <c r="T43" t="n">
-        <v>2429.412499335695</v>
+        <v>2026.563526789002</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.954262074192</v>
+        <v>1737.487313103729</v>
       </c>
       <c r="V43" t="n">
-        <v>2019.269773868305</v>
+        <v>1482.802824897842</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.852603831344</v>
+        <v>1193.385654860882</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.863052933327</v>
+        <v>965.3961039628643</v>
       </c>
       <c r="Y43" t="n">
-        <v>1281.070473789797</v>
+        <v>744.6035248193342</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C44" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D44" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E44" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F44" t="n">
-        <v>794.2588208963562</v>
+        <v>794.258820896357</v>
       </c>
       <c r="G44" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127634</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160741</v>
       </c>
       <c r="I44" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J44" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507193</v>
       </c>
       <c r="K44" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384002</v>
       </c>
       <c r="L44" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944173</v>
       </c>
       <c r="M44" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.49894988321</v>
       </c>
       <c r="N44" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800314</v>
       </c>
       <c r="O44" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259451</v>
       </c>
       <c r="P44" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946798</v>
       </c>
       <c r="Q44" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052804</v>
       </c>
       <c r="R44" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T44" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V44" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X44" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="45">
@@ -7718,34 +7718,34 @@
         <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J45" t="n">
-        <v>241.4963299034529</v>
+        <v>241.4963299034526</v>
       </c>
       <c r="K45" t="n">
-        <v>241.4963299034529</v>
+        <v>572.0050724668106</v>
       </c>
       <c r="L45" t="n">
-        <v>732.2286627472042</v>
+        <v>1062.737405310561</v>
       </c>
       <c r="M45" t="n">
-        <v>1324.247016999332</v>
+        <v>1654.755759562687</v>
       </c>
       <c r="N45" t="n">
-        <v>1356.791087284249</v>
+        <v>2276.851722962022</v>
       </c>
       <c r="O45" t="n">
-        <v>1903.667562284444</v>
+        <v>2276.851722962022</v>
       </c>
       <c r="P45" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.812354695766</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>562.9550599890988</v>
+        <v>562.9550599890945</v>
       </c>
       <c r="C46" t="n">
         <v>538.7680286442462</v>
@@ -7794,64 +7794,64 @@
         <v>240.7382956495174</v>
       </c>
       <c r="F46" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G46" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J46" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411607</v>
       </c>
       <c r="K46" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117239</v>
       </c>
       <c r="L46" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948575</v>
       </c>
       <c r="M46" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139316</v>
       </c>
       <c r="N46" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931023</v>
       </c>
       <c r="O46" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946052</v>
       </c>
       <c r="P46" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782256</v>
       </c>
       <c r="Q46" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="R46" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="S46" t="n">
-        <v>2246.242309074625</v>
+        <v>2246.242309074621</v>
       </c>
       <c r="T46" t="n">
-        <v>2026.563526789007</v>
+        <v>2026.563526789002</v>
       </c>
       <c r="U46" t="n">
-        <v>1737.487313103734</v>
+        <v>1737.487313103729</v>
       </c>
       <c r="V46" t="n">
-        <v>1482.802824897847</v>
+        <v>1482.802824897842</v>
       </c>
       <c r="W46" t="n">
-        <v>1193.385654860886</v>
+        <v>1193.385654860882</v>
       </c>
       <c r="X46" t="n">
-        <v>965.3961039628687</v>
+        <v>965.3961039628643</v>
       </c>
       <c r="Y46" t="n">
-        <v>744.6035248193385</v>
+        <v>744.6035248193342</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>51.31264782909057</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>51.31264782908991</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>51.31264782908991</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.31264782908991</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.31264782908991</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>51.31264782911239</v>
+        <v>51.31264782910114</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>51.31264782910097</v>
       </c>
       <c r="R29" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>51.31264782908289</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>51.31264782910151</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10594,13 +10594,13 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>51.31264782909193</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>51.31264782910125</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>51.31264782909182</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>51.31264782910151</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>51.31264782910131</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>51.31264782909182</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>51.31264782910151</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>143.3016600672238</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>76.00797063971557</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>133.4544069874997</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>84.16945386597405</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23898,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.13447862331887</v>
       </c>
       <c r="U19" t="n">
-        <v>20.66261545915836</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>84.16945386597402</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>76.00797063971558</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>84.16945386597411</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>81.98794349433084</v>
       </c>
       <c r="H25" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>112.4550082207873</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.453989791954</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>143.6715153845084</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>84.16945386597398</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>16.34074175318864</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440915</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108373</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>76.00797063971987</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440915</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>245.2272416658661</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>54.04150022768944</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>90.63179579304085</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>90.63179579304088</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>84.16945386597831</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440915</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>143.3016600672281</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440915</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108373</v>
       </c>
       <c r="S43" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>132.2817966595327</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>143.3016600672238</v>
+        <v>143.3016600672281</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440915</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108373</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>811667.3700579049</v>
+        <v>811667.370057905</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>811667.3700579049</v>
+        <v>811667.370057905</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>811667.3700579049</v>
+        <v>811667.3700579051</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>811667.3700579049</v>
+        <v>811667.370057905</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>811667.3700579049</v>
+        <v>811667.370057905</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>811667.370057905</v>
+        <v>811667.3700579051</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>811667.370057905</v>
+        <v>811667.3700579051</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>811667.370057905</v>
+        <v>811667.3700579051</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>811667.370057905</v>
+        <v>811667.3700579051</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.327398213</v>
       </c>
       <c r="E2" t="n">
-        <v>605012.2328389188</v>
+        <v>605012.2328389189</v>
       </c>
       <c r="F2" t="n">
-        <v>605012.2328389193</v>
+        <v>605012.2328389192</v>
       </c>
       <c r="G2" t="n">
-        <v>605012.2328389192</v>
+        <v>605012.232838919</v>
       </c>
       <c r="H2" t="n">
-        <v>605012.2328389192</v>
+        <v>605012.2328389189</v>
       </c>
       <c r="I2" t="n">
         <v>605012.2328389194</v>
@@ -26340,22 +26340,22 @@
         <v>605012.2328389194</v>
       </c>
       <c r="K2" t="n">
-        <v>605012.2328389188</v>
+        <v>605012.2328389192</v>
       </c>
       <c r="L2" t="n">
-        <v>605012.2328389195</v>
+        <v>605012.232838919</v>
       </c>
       <c r="M2" t="n">
-        <v>605012.2328389192</v>
+        <v>605012.2328389193</v>
       </c>
       <c r="N2" t="n">
+        <v>605012.2328389189</v>
+      </c>
+      <c r="O2" t="n">
         <v>605012.232838919</v>
       </c>
-      <c r="O2" t="n">
-        <v>605012.2328389189</v>
-      </c>
       <c r="P2" t="n">
-        <v>605012.2328389192</v>
+        <v>605012.232838919</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545123</v>
+        <v>936509.6654545122</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925898</v>
+        <v>176423.2191925915</v>
       </c>
       <c r="K3" t="n">
-        <v>2.862508154066745e-09</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.138088009611238e-09</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901362</v>
+        <v>124307.2113901373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5781.97189485511</v>
+        <v>5781.971894855127</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894855102</v>
+        <v>5781.971894855127</v>
       </c>
       <c r="G4" t="n">
-        <v>5781.971894855101</v>
+        <v>5781.971894855127</v>
       </c>
       <c r="H4" t="n">
-        <v>5781.971894855101</v>
+        <v>5781.971894855127</v>
       </c>
       <c r="I4" t="n">
-        <v>5781.971894855102</v>
+        <v>5781.971894855128</v>
       </c>
       <c r="J4" t="n">
-        <v>5781.971894855415</v>
+        <v>5781.971894855258</v>
       </c>
       <c r="K4" t="n">
-        <v>5781.971894855151</v>
+        <v>5781.971894855255</v>
       </c>
       <c r="L4" t="n">
-        <v>5781.971894855003</v>
+        <v>5781.971894855263</v>
       </c>
       <c r="M4" t="n">
-        <v>5781.971894855129</v>
+        <v>5781.971894855259</v>
       </c>
       <c r="N4" t="n">
-        <v>5781.971894855127</v>
+        <v>5781.971894855263</v>
       </c>
       <c r="O4" t="n">
-        <v>5781.971894855127</v>
+        <v>5781.97189485526</v>
       </c>
       <c r="P4" t="n">
-        <v>5781.971894855114</v>
+        <v>5781.971894855263</v>
       </c>
     </row>
     <row r="5">
@@ -26499,16 +26499,16 @@
         <v>100930.0394572385</v>
       </c>
       <c r="L5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="M5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="N5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
         <v>100930.0394572385</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-258110.135807473</v>
+        <v>-258110.1358074729</v>
       </c>
       <c r="C6" t="n">
-        <v>331857.7434070717</v>
+        <v>331857.7434070719</v>
       </c>
       <c r="D6" t="n">
-        <v>331857.7434070716</v>
+        <v>331857.743407072</v>
       </c>
       <c r="E6" t="n">
-        <v>-438568.4137863303</v>
+        <v>-438245.3409495513</v>
       </c>
       <c r="F6" t="n">
-        <v>497941.2516681824</v>
+        <v>498264.3245049611</v>
       </c>
       <c r="G6" t="n">
-        <v>497941.2516681823</v>
+        <v>498264.324504961</v>
       </c>
       <c r="H6" t="n">
-        <v>497941.2516681823</v>
+        <v>498264.3245049609</v>
       </c>
       <c r="I6" t="n">
-        <v>497941.2516681826</v>
+        <v>498264.3245049614</v>
       </c>
       <c r="J6" t="n">
-        <v>321518.0324755926</v>
+        <v>321841.1053123698</v>
       </c>
       <c r="K6" t="n">
-        <v>497941.2516681791</v>
+        <v>498264.3245049611</v>
       </c>
       <c r="L6" t="n">
-        <v>497941.2516681816</v>
+        <v>498264.324504961</v>
       </c>
       <c r="M6" t="n">
-        <v>373634.0402780462</v>
+        <v>373957.1131148239</v>
       </c>
       <c r="N6" t="n">
-        <v>497941.2516681822</v>
+        <v>498264.3245049609</v>
       </c>
       <c r="O6" t="n">
-        <v>497941.2516681821</v>
+        <v>498264.324504961</v>
       </c>
       <c r="P6" t="n">
-        <v>497941.2516681824</v>
+        <v>498264.324504961</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26761,25 +26761,25 @@
         <v>1358.041048716386</v>
       </c>
       <c r="J3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716384</v>
       </c>
       <c r="K3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716384</v>
       </c>
       <c r="L3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716384</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716384</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716384</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716384</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716384</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992991</v>
+        <v>980.2973844992989</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,16 +26983,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.98998703304576e-12</v>
+        <v>-7.162502786134392e-13</v>
       </c>
       <c r="K3" t="n">
-        <v>4.092726157978177e-12</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405327</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>85.34635367328917</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>137.0042322786515</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>14.70855841873848</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>227.2183198663264</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>23.62333149860825</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>19.88405377167442</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>33.41855346988776</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866308</v>
       </c>
       <c r="E10" t="n">
-        <v>45.92506558246366</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M11" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U11" t="n">
         <v>0.436756920190194</v>
@@ -31834,7 +31834,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,34 +31843,34 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>199.0463877591107</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.0542121815558</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31916,7 +31916,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J13" t="n">
         <v>173.1391022273333</v>
@@ -31925,16 +31925,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P13" t="n">
         <v>296.1865264282424</v>
@@ -31946,7 +31946,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32071,7 +32071,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>199.0463877591107</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>489.7119024980487</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32153,7 +32153,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32162,16 +32162,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32183,7 +32183,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M17" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
         <v>0.436756920190194</v>
@@ -32308,7 +32308,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32320,31 +32320,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>271.6268178754087</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>273.0542121815563</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
         <v>0.1921756201013754</v>
@@ -32390,7 +32390,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J19" t="n">
         <v>173.1391022273333</v>
@@ -32399,16 +32399,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
         <v>296.1865264282424</v>
@@ -32420,7 +32420,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T19" t="n">
         <v>10.46359496551969</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M20" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
         <v>0.436756920190194</v>
@@ -32545,7 +32545,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,19 +32554,19 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>471.6886536848224</v>
+        <v>199.0463877591107</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O21" t="n">
-        <v>422.3544583169084</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
         <v>0.1921756201013754</v>
@@ -32627,7 +32627,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J22" t="n">
         <v>173.1391022273333</v>
@@ -32636,16 +32636,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
         <v>296.1865264282424</v>
@@ -32657,7 +32657,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T22" t="n">
         <v>10.46359496551969</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M23" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S23" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T23" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U23" t="n">
         <v>0.436756920190194</v>
@@ -32782,7 +32782,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32794,31 +32794,31 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927639</v>
+        <v>382.7677754386397</v>
       </c>
       <c r="O24" t="n">
-        <v>422.3544583169084</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U24" t="n">
         <v>0.1921756201013754</v>
@@ -32864,7 +32864,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J25" t="n">
         <v>173.1391022273333</v>
@@ -32873,16 +32873,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P25" t="n">
         <v>296.1865264282424</v>
@@ -32894,7 +32894,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T25" t="n">
         <v>10.46359496551969</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377417</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122274</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704056</v>
       </c>
       <c r="J26" t="n">
-        <v>463.364970687405</v>
+        <v>463.3649706874057</v>
       </c>
       <c r="K26" t="n">
-        <v>694.4639760830408</v>
+        <v>694.463976083042</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364237</v>
+        <v>861.543971036425</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293294</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229593</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086938</v>
       </c>
       <c r="P26" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687511</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148597</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987157</v>
       </c>
       <c r="S26" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854255</v>
       </c>
       <c r="T26" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665716</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.4367569201901933</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.921069425540896</v>
+        <v>2.9210694255409</v>
       </c>
       <c r="H27" t="n">
-        <v>28.21138103088182</v>
+        <v>28.21138103088186</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>275.977002173581</v>
+        <v>275.9770021735814</v>
       </c>
       <c r="K27" t="n">
-        <v>403.6044129846353</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>634.2436048745706</v>
+        <v>271.6268178754136</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504278</v>
+        <v>740.132371550429</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927626</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426184</v>
+        <v>694.9967242426194</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982436</v>
+        <v>557.7961431982445</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.25758340862144</v>
+        <v>54.25758340862151</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821091</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013751</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291839</v>
       </c>
       <c r="H28" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548564</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284914</v>
       </c>
       <c r="J28" t="n">
-        <v>173.1391022273327</v>
+        <v>173.139102227333</v>
       </c>
       <c r="K28" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900882</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640613</v>
       </c>
       <c r="M28" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265016</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416869</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465957</v>
       </c>
       <c r="P28" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282419</v>
       </c>
       <c r="Q28" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561739</v>
       </c>
       <c r="R28" t="n">
-        <v>110.1126397860856</v>
+        <v>110.1126397860858</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851322</v>
       </c>
       <c r="T28" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551967</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704641</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377417</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122274</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704056</v>
       </c>
       <c r="J29" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874057</v>
       </c>
       <c r="K29" t="n">
-        <v>694.463976083043</v>
+        <v>694.463976083042</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364263</v>
+        <v>861.543971036425</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293294</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229593</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086938</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687511</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148597</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987157</v>
       </c>
       <c r="S29" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854255</v>
       </c>
       <c r="T29" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665716</v>
       </c>
       <c r="U29" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901933</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.921069425540905</v>
+        <v>2.9210694255409</v>
       </c>
       <c r="H30" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088186</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735814</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>271.6268178754136</v>
       </c>
       <c r="M30" t="n">
-        <v>640.3146339032915</v>
+        <v>740.132371550429</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927626</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426194</v>
       </c>
       <c r="P30" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982445</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862151</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821091</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013751</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291839</v>
       </c>
       <c r="H31" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548564</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284914</v>
       </c>
       <c r="J31" t="n">
-        <v>173.1391022273333</v>
+        <v>173.139102227333</v>
       </c>
       <c r="K31" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900882</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640613</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265016</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416869</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465957</v>
       </c>
       <c r="P31" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282419</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561739</v>
       </c>
       <c r="R31" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860858</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851322</v>
       </c>
       <c r="T31" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551967</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704641</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377417</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122274</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704056</v>
       </c>
       <c r="J32" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874057</v>
       </c>
       <c r="K32" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083042</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364274</v>
+        <v>861.543971036425</v>
       </c>
       <c r="M32" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293294</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229593</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086938</v>
       </c>
       <c r="P32" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687511</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148597</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987157</v>
       </c>
       <c r="S32" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854255</v>
       </c>
       <c r="T32" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665716</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.4367569201901933</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.921069425540908</v>
+        <v>2.9210694255409</v>
       </c>
       <c r="H33" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088186</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735814</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745732</v>
+        <v>271.6268178754136</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504309</v>
+        <v>740.132371550429</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927626</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426194</v>
       </c>
       <c r="P33" t="n">
-        <v>195.1793561990784</v>
+        <v>557.7961431982445</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862151</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821091</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013751</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291839</v>
       </c>
       <c r="H34" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548564</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284914</v>
       </c>
       <c r="J34" t="n">
-        <v>173.1391022273335</v>
+        <v>173.139102227333</v>
       </c>
       <c r="K34" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900882</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640613</v>
       </c>
       <c r="M34" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265016</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416869</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465957</v>
       </c>
       <c r="P34" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282419</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561739</v>
       </c>
       <c r="R34" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860858</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851322</v>
       </c>
       <c r="T34" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551967</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704641</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377417</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122274</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704056</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874057</v>
       </c>
       <c r="K35" t="n">
-        <v>694.463976083043</v>
+        <v>694.463976083042</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364263</v>
+        <v>861.543971036425</v>
       </c>
       <c r="M35" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293294</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229593</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086938</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687511</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148597</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987157</v>
       </c>
       <c r="S35" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854255</v>
       </c>
       <c r="T35" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665716</v>
       </c>
       <c r="U35" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901933</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.921069425540905</v>
+        <v>2.9210694255409</v>
       </c>
       <c r="H36" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088186</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735814</v>
       </c>
       <c r="K36" t="n">
-        <v>170.7142372419526</v>
+        <v>471.6886536848217</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745715</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504301</v>
+        <v>740.132371550429</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927626</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169135</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862151</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821091</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013751</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291839</v>
       </c>
       <c r="H37" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548564</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284914</v>
       </c>
       <c r="J37" t="n">
-        <v>173.1391022273333</v>
+        <v>173.139102227333</v>
       </c>
       <c r="K37" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900882</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640613</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265016</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416869</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465957</v>
       </c>
       <c r="P37" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282419</v>
       </c>
       <c r="Q37" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561739</v>
       </c>
       <c r="R37" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860858</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851322</v>
       </c>
       <c r="T37" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551967</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704641</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377417</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122274</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704056</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874057</v>
       </c>
       <c r="K38" t="n">
-        <v>694.463976083043</v>
+        <v>694.463976083042</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364263</v>
+        <v>861.543971036425</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293294</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229593</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086938</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687511</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148597</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987157</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854255</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665716</v>
       </c>
       <c r="U38" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901933</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540905</v>
+        <v>2.9210694255409</v>
       </c>
       <c r="H39" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088186</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735814</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>591.1371219309115</v>
+        <v>271.6268178754136</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504301</v>
+        <v>740.132371550429</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927626</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426194</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982445</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862151</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821091</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013751</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291839</v>
       </c>
       <c r="H40" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548564</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284914</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273333</v>
+        <v>173.139102227333</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900882</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640613</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265016</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416869</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465957</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282419</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561739</v>
       </c>
       <c r="R40" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860858</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851322</v>
       </c>
       <c r="T40" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551967</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704641</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377417</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122274</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704056</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874057</v>
       </c>
       <c r="K41" t="n">
-        <v>694.463976083043</v>
+        <v>694.463976083042</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364263</v>
+        <v>861.543971036425</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293294</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229593</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086938</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687511</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148597</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987157</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854255</v>
       </c>
       <c r="T41" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665716</v>
       </c>
       <c r="U41" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901933</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.921069425540905</v>
+        <v>2.9210694255409</v>
       </c>
       <c r="H42" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088186</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735814</v>
       </c>
       <c r="K42" t="n">
-        <v>471.6886536848224</v>
+        <v>471.6886536848217</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745715</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504301</v>
+        <v>740.132371550429</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927626</v>
       </c>
       <c r="O42" t="n">
-        <v>422.3544583169088</v>
+        <v>422.3544583169135</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862151</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821091</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013751</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291839</v>
       </c>
       <c r="H43" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548564</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284914</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273333</v>
+        <v>173.139102227333</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900882</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640613</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265016</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416869</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465957</v>
       </c>
       <c r="P43" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282419</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561739</v>
       </c>
       <c r="R43" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860858</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851322</v>
       </c>
       <c r="T43" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551967</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704641</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377417</v>
       </c>
       <c r="H44" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122274</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704056</v>
       </c>
       <c r="J44" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874057</v>
       </c>
       <c r="K44" t="n">
-        <v>694.463976083043</v>
+        <v>694.463976083042</v>
       </c>
       <c r="L44" t="n">
-        <v>861.5439710364263</v>
+        <v>861.543971036425</v>
       </c>
       <c r="M44" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293294</v>
       </c>
       <c r="N44" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229593</v>
       </c>
       <c r="O44" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086938</v>
       </c>
       <c r="P44" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687511</v>
       </c>
       <c r="Q44" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148597</v>
       </c>
       <c r="R44" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987157</v>
       </c>
       <c r="S44" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854255</v>
       </c>
       <c r="T44" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665716</v>
       </c>
       <c r="U44" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901933</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.921069425540905</v>
+        <v>2.9210694255409</v>
       </c>
       <c r="H45" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088186</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735814</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848217</v>
       </c>
       <c r="L45" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745715</v>
       </c>
       <c r="M45" t="n">
-        <v>740.1323715504301</v>
+        <v>740.132371550429</v>
       </c>
       <c r="N45" t="n">
-        <v>164.214510350927</v>
+        <v>759.7214730927626</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>557.7961431982453</v>
+        <v>413.7326212867993</v>
       </c>
       <c r="Q45" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862151</v>
       </c>
       <c r="T45" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821091</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013751</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291839</v>
       </c>
       <c r="H46" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548564</v>
       </c>
       <c r="I46" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284914</v>
       </c>
       <c r="J46" t="n">
-        <v>173.1391022273333</v>
+        <v>173.139102227333</v>
       </c>
       <c r="K46" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900882</v>
       </c>
       <c r="L46" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640613</v>
       </c>
       <c r="M46" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265016</v>
       </c>
       <c r="N46" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416869</v>
       </c>
       <c r="O46" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465957</v>
       </c>
       <c r="P46" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282419</v>
       </c>
       <c r="Q46" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561739</v>
       </c>
       <c r="R46" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860858</v>
       </c>
       <c r="S46" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851322</v>
       </c>
       <c r="T46" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551967</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704641</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664393</v>
+        <v>677.0902038955309</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P11" t="n">
-        <v>605.1570404425736</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>61.20494878475174</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>133.0724380955343</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K13" t="n">
         <v>262.2512393642057</v>
@@ -35576,19 +35576,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N13" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>333.6317139898119</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>178.6700086136741</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>61.20494878475174</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>355.7374950837184</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35813,19 +35813,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>178.6700086136741</v>
+        <v>178.6700086136759</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>133.0724380955345</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>133.0724380955348</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K19" t="n">
         <v>262.2512393642057</v>
@@ -36050,19 +36050,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N20" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P20" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>178.6700086136741</v>
+        <v>178.6700086136759</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>333.8472147104634</v>
+        <v>61.20494878475174</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O21" t="n">
-        <v>279.758213872464</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K22" t="n">
         <v>262.2512393642057</v>
@@ -36287,19 +36287,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N23" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P23" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R23" t="n">
-        <v>178.6700086136741</v>
+        <v>178.6700086136759</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094306</v>
+        <v>251.4260633553063</v>
       </c>
       <c r="O24" t="n">
-        <v>279.758213872464</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K25" t="n">
         <v>262.2512393642057</v>
@@ -36524,19 +36524,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N25" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O25" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607194</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380614</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7775560664365</v>
+        <v>625.7775560664377</v>
       </c>
       <c r="M26" t="n">
-        <v>728.2874363020552</v>
+        <v>728.2874363020567</v>
       </c>
       <c r="N26" t="n">
-        <v>796.0449487554793</v>
+        <v>796.0449487554696</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870057</v>
+        <v>689.759632787007</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134817</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404102</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845831</v>
+        <v>127.3573607845836</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>149.1393755069143</v>
+        <v>149.1393755069147</v>
       </c>
       <c r="K27" t="n">
-        <v>265.7629740102763</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>495.6892250946964</v>
+        <v>133.0724380955394</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284094</v>
+        <v>597.9983376284106</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>628.3797610094293</v>
       </c>
       <c r="O27" t="n">
-        <v>552.4004797981739</v>
+        <v>552.400479798175</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839134</v>
+        <v>423.8217357839143</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066024</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642053</v>
       </c>
       <c r="L28" t="n">
-        <v>391.6786041243769</v>
+        <v>391.6786041243774</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883422</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209155</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606353</v>
       </c>
       <c r="P28" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931354</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044795</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607194</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380614</v>
       </c>
       <c r="L29" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664377</v>
       </c>
       <c r="M29" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020567</v>
       </c>
       <c r="N29" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263685</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870084</v>
+        <v>689.759632787007</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134817</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404111</v>
+        <v>418.5673812695111</v>
       </c>
       <c r="R29" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845836</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069147</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>133.0724380955394</v>
       </c>
       <c r="M30" t="n">
-        <v>498.1805999812731</v>
+        <v>597.9983376284106</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094293</v>
       </c>
       <c r="O30" t="n">
-        <v>552.400479798176</v>
+        <v>552.400479798175</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839143</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066024</v>
       </c>
       <c r="K31" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642053</v>
       </c>
       <c r="L31" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243774</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883422</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209155</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606353</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931354</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044795</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>333.6317139898036</v>
+        <v>282.3190661607194</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380614</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7775560664402</v>
+        <v>625.7775560664377</v>
       </c>
       <c r="M32" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020567</v>
       </c>
       <c r="N32" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263685</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870094</v>
+        <v>689.759632787007</v>
       </c>
       <c r="P32" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134817</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404102</v>
       </c>
       <c r="R32" t="n">
-        <v>127.3573607845846</v>
+        <v>178.6700086136851</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069147</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>495.689225094699</v>
+        <v>133.0724380955394</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284106</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094293</v>
       </c>
       <c r="O33" t="n">
-        <v>552.4004797981769</v>
+        <v>552.400479798175</v>
       </c>
       <c r="P33" t="n">
-        <v>61.20494878474815</v>
+        <v>423.8217357839143</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066024</v>
       </c>
       <c r="K34" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642053</v>
       </c>
       <c r="L34" t="n">
-        <v>391.6786041243784</v>
+        <v>391.6786041243774</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883422</v>
       </c>
       <c r="N34" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209155</v>
       </c>
       <c r="O34" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606353</v>
       </c>
       <c r="P34" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931354</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044795</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607194</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380614</v>
       </c>
       <c r="L35" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664377</v>
       </c>
       <c r="M35" t="n">
-        <v>779.60008413115</v>
+        <v>728.2874363020567</v>
       </c>
       <c r="N35" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263685</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870084</v>
+        <v>741.0722806161083</v>
       </c>
       <c r="P35" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134817</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404102</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845836</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069147</v>
       </c>
       <c r="K36" t="n">
-        <v>32.87279826759363</v>
+        <v>333.8472147104627</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946973</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284106</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>628.3797610094293</v>
       </c>
       <c r="O36" t="n">
-        <v>552.400479798176</v>
+        <v>279.758213872469</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066024</v>
       </c>
       <c r="K37" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642053</v>
       </c>
       <c r="L37" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243774</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883422</v>
       </c>
       <c r="N37" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209155</v>
       </c>
       <c r="O37" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606353</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931354</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044795</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607194</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380614</v>
       </c>
       <c r="L38" t="n">
-        <v>677.0902038955309</v>
+        <v>625.7775560664377</v>
       </c>
       <c r="M38" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020567</v>
       </c>
       <c r="N38" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263685</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870084</v>
+        <v>689.759632787007</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134817</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404102</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136851</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069147</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>452.5827421510373</v>
+        <v>133.0724380955394</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284106</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094293</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>552.400479798175</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839143</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066024</v>
       </c>
       <c r="K40" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642053</v>
       </c>
       <c r="L40" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243774</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883422</v>
       </c>
       <c r="N40" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209155</v>
       </c>
       <c r="O40" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606353</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931354</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044795</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607201</v>
+        <v>333.6317139898208</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380614</v>
       </c>
       <c r="L41" t="n">
-        <v>677.0902038955309</v>
+        <v>625.7775560664377</v>
       </c>
       <c r="M41" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020567</v>
       </c>
       <c r="N41" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263685</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870084</v>
+        <v>689.759632787007</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134817</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404102</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845836</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069147</v>
       </c>
       <c r="K42" t="n">
-        <v>333.8472147104634</v>
+        <v>333.8472147104627</v>
       </c>
       <c r="L42" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946973</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284106</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094293</v>
       </c>
       <c r="O42" t="n">
-        <v>279.7582138724644</v>
+        <v>279.758213872469</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066024</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642053</v>
       </c>
       <c r="L43" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243774</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883422</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209155</v>
       </c>
       <c r="O43" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606353</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931354</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044795</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607194</v>
       </c>
       <c r="K44" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380614</v>
       </c>
       <c r="L44" t="n">
-        <v>677.09020389553</v>
+        <v>625.7775560664377</v>
       </c>
       <c r="M44" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020567</v>
       </c>
       <c r="N44" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263685</v>
       </c>
       <c r="O44" t="n">
-        <v>689.7596327870084</v>
+        <v>689.759632787007</v>
       </c>
       <c r="P44" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134817</v>
       </c>
       <c r="Q44" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404102</v>
       </c>
       <c r="R44" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136851</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069147</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.8472147104627</v>
       </c>
       <c r="L45" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946973</v>
       </c>
       <c r="M45" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284106</v>
       </c>
       <c r="N45" t="n">
-        <v>32.87279826759372</v>
+        <v>628.3797610094293</v>
       </c>
       <c r="O45" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>423.8217357839151</v>
+        <v>279.758213872469</v>
       </c>
       <c r="Q45" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066024</v>
       </c>
       <c r="K46" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642053</v>
       </c>
       <c r="L46" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243774</v>
       </c>
       <c r="M46" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883422</v>
       </c>
       <c r="N46" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209155</v>
       </c>
       <c r="O46" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606353</v>
       </c>
       <c r="P46" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931354</v>
       </c>
       <c r="Q46" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044795</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
